--- a/assessment2/assessment2_calcs.xlsx
+++ b/assessment2/assessment2_calcs.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A5735-54ED-418E-80F0-63EC9EA2D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB809AA-E316-42D8-89FD-2E502FF3CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="2" r:id="rId2"/>
     <sheet name="Task3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="TreeData" localSheetId="0">Task1!$ALM$1003:$ALT$1017</definedName>
+    <definedName name="TreeDiag" localSheetId="0">Task1!$A$3:$S$47</definedName>
+    <definedName name="TreeOption" localSheetId="0">Task1!$ALM$993</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,10 +42,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Event 3</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>accept settlement</t>
+  </si>
+  <si>
+    <t>plaintiff accepts</t>
+  </si>
+  <si>
+    <t>plaintiff rejects</t>
+  </si>
+  <si>
+    <t>counter-offer $400K</t>
+  </si>
+  <si>
+    <t>plaintiff counter-offers $600K</t>
+  </si>
+  <si>
+    <t>reject and go to trial</t>
+  </si>
+  <si>
+    <t>no damages</t>
+  </si>
+  <si>
+    <t>$750K damages</t>
+  </si>
+  <si>
+    <t>$1.5M damages</t>
+  </si>
+  <si>
+    <t>Cost ($/1000)</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>TASK 1</t>
+  </si>
+  <si>
+    <t>TASK 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -56,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -64,12 +157,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,6 +276,2772 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Straight Connector 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DE1A22-B969-B626-0319-E56BFDAB72A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="610235"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Connector 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F53EA6E-9402-7D51-54C1-2E51C3FCEFC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2736850" y="688975"/>
+          <a:ext cx="6496050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Straight Connector 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC474DC-B50D-9EEE-8F82-186638329903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="844550" y="688975"/>
+          <a:ext cx="387350" cy="1574800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E227ACE-334C-B673-8690-50B53D360287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231900" y="688975"/>
+          <a:ext cx="1320800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Straight Connector 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB58A5D6-2420-9F02-A6AB-DE5C326B1A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="1594485"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Straight Connector 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6732CD23-2046-3C47-F221-BD6F396E8088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5480050" y="1673225"/>
+          <a:ext cx="3752850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Straight Connector 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BA7D26-99D8-8774-9BC3-78B64EF31147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2736850" y="1673225"/>
+          <a:ext cx="387350" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="Straight Connector 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974B45ED-9CE1-9E19-54C5-CE8604CFA026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="1673225"/>
+          <a:ext cx="2171700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Straight Connector 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD393F8C-0435-1D93-8EC9-5A4AFFA3CC9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="2578735"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="Straight Connector 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0169C15-0A94-F95E-072A-71549B268CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="2657475"/>
+          <a:ext cx="1708150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Connector 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEC7C11-FD3D-418D-4CE6-15CF087CF415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5480050" y="2657475"/>
+          <a:ext cx="387350" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="Straight Connector 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E998AC-62B6-C4AA-549A-D00A47DA2F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="2657475"/>
+          <a:ext cx="1473200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="Straight Connector 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6F7B66-E74D-18C9-F24A-7DB48DBDA2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="3562985"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Connector 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763A91CD-A9B6-8263-5E3C-286E36153F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="3641725"/>
+          <a:ext cx="1708150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="Straight Connector 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BDC950-43E4-543C-95F9-9F74BF5F66C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5480050" y="3641725"/>
+          <a:ext cx="387350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Straight Connector 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1878272-0F7A-1E85-9BB4-AD9A1C465E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="3641725"/>
+          <a:ext cx="1473200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Straight Connector 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C9DACA-200A-CF94-F624-AF81F1E94E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="4547235"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="Straight Connector 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345512D3-4C62-7516-4F10-3AA61C1FA6A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="4625975"/>
+          <a:ext cx="1708150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="Straight Connector 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74318CD8-2C97-379D-215A-A9ADDAAFFEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5480050" y="3641725"/>
+          <a:ext cx="387350" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="Straight Connector 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B3FF2A-8A94-358F-2466-49070E2289C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="4625975"/>
+          <a:ext cx="1473200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Oval 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79277AC-862C-E77A-2052-0874D5463085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5308600" y="3556000"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="Straight Connector 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59F1E5E-21E2-5523-1A24-40937A990623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2736850" y="3641725"/>
+          <a:ext cx="387350" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="Straight Connector 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A915EA1-EE5A-5D5C-1009-EB89290E19AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="3641725"/>
+          <a:ext cx="2171700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="Straight Connector 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D030B6-6AD4-1444-121E-D8BEF7AE3684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="5531485"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="Straight Connector 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3F5CBE-D8DD-7852-A6A4-46B2C5758464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="5610225"/>
+          <a:ext cx="1708150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Straight Connector 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CEDE37-E939-DC9B-A238-ED42F647EFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5480050" y="5610225"/>
+          <a:ext cx="387350" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="Straight Connector 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2E231E-9A5E-7F6E-932F-35CDB7DF6EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="5610225"/>
+          <a:ext cx="1473200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="Straight Connector 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E175D33-29D3-635F-8E31-F9D614F6A828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9232900" y="6515735"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="Straight Connector 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFD268F-AEC1-967E-7C7A-7D992BAF2FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7524750" y="6594475"/>
+          <a:ext cx="387350" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="Straight Connector 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D614FFB3-C4CD-2EDE-49C3-D77D9EDF5754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7912100" y="6594475"/>
+          <a:ext cx="1320800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="Straight Connector 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5B3A6D-DCAC-555D-9E6D-7BD95E17012C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9232900" y="7499985"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="Straight Connector 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5283210A-A711-D857-9CFC-BF71D072E52A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="7578725"/>
+          <a:ext cx="387350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="Straight Connector 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EC9B6F-5544-0CA8-91B0-C2184CA66093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7912100" y="7578725"/>
+          <a:ext cx="1320800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Straight Connector 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2321E107-DA80-CE70-578C-CB5316B233AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9232900" y="8484235"/>
+          <a:ext cx="0" cy="157480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="Straight Connector 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E457717-F480-12F5-53C6-28090760269F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="7578725"/>
+          <a:ext cx="387350" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Straight Connector 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E97A47F-30F2-0879-F54E-C827305CB914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7912100" y="8562975"/>
+          <a:ext cx="1320800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Oval 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A229A53-B646-B1F6-B14D-BCD14418DCBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="7493000"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="Straight Connector 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5677ABC1-E46B-F697-B2AF-5E7527813025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5480050" y="6594475"/>
+          <a:ext cx="387350" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Straight Connector 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062DA0BD-A658-DDE7-72CC-6C5EF7679667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="7578725"/>
+          <a:ext cx="1473200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="Rectangle 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1D5CE7-B322-5F9A-0F32-0B8D450A7566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5308600" y="6508750"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="Straight Connector 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DCD2D3-2468-E1FA-6B12-1B92F3D51D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2736850" y="4035425"/>
+          <a:ext cx="387350" cy="2559050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="Straight Connector 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCC41E7-DED6-DB63-5EF1-6F6293624043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="6594475"/>
+          <a:ext cx="2171700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="Oval 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D47D56-FFBD-77F0-C23D-E637BFD0E9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="3949700"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="Straight Connector 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A11608-5E4A-D5C9-9BD5-41CAF319791A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844550" y="2263775"/>
+          <a:ext cx="387350" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="Straight Connector 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B227C7-6A0A-ED1F-C9D1-A3FC2E776F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231900" y="4035425"/>
+          <a:ext cx="1320800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="Rectangle 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7336B409-5FF0-ECB6-5271-151C95542560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="2178050"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="Straight Connector 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED7BBE6-E8D6-FB25-B66B-40F8E5CD5ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2263775"/>
+          <a:ext cx="660400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7F7F7F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,6 +3341,1472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE2F6F4-F4B0-4C64-9570-589218C8A64B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:ALT1017"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="2.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="2.4140625" customWidth="1"/>
+    <col min="7" max="7" width="5.08203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.4140625" customWidth="1"/>
+    <col min="11" max="11" width="5.08203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="2.4140625" customWidth="1"/>
+    <col min="15" max="15" width="5.08203125" customWidth="1"/>
+    <col min="18" max="18" width="2.4140625" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="2000" max="2000" width="2.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f>S5</f>
+        <v>750</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <f>S10</f>
+        <v>400</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <f>MIN(E6,E23)</f>
+        <v>670</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <f>S15</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <f>IF(ABS(1-SUM(L13,L18,L23))&lt;=0.00001,SUM(L13 * M16,L18 * M21,L23 * M26),NA())</f>
+        <v>825</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <f>S20</f>
+        <v>750</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f>IF(ABS(1-SUM(H8,H18,H33))&lt;=0.00001,SUM(H8 * I11,H18 * I21,H33 * I36),NA())</f>
+        <v>670</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <f>S25</f>
+        <v>1500</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <f>S30</f>
+        <v>600</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
+        <f>MIN(M31,M41)</f>
+        <v>600</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
+        <f>S35</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
+        <f>IF(ABS(1-SUM(P33,P38,P43))&lt;=0.00001,SUM(P33 * Q36,P38 * Q41,P43 * Q46),NA())</f>
+        <v>825</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1">
+        <f>S40</f>
+        <v>750</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
+        <f>S45</f>
+        <v>1500</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="993" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALN993" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1003" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1003" t="s">
+        <v>0</v>
+      </c>
+      <c r="ALN1003" t="s">
+        <v>1</v>
+      </c>
+      <c r="ALO1003" t="s">
+        <v>2</v>
+      </c>
+      <c r="ALP1003" t="s">
+        <v>3</v>
+      </c>
+      <c r="ALQ1003" t="s">
+        <v>4</v>
+      </c>
+      <c r="ALR1003" t="s">
+        <v>5</v>
+      </c>
+      <c r="ALS1003" t="s">
+        <v>6</v>
+      </c>
+      <c r="ALT1003" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1004" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1004">
+        <v>1</v>
+      </c>
+      <c r="ALN1004">
+        <v>14</v>
+      </c>
+      <c r="ALO1004" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1004">
+        <v>2</v>
+      </c>
+      <c r="ALQ1004">
+        <v>5</v>
+      </c>
+      <c r="ALR1004" t="s">
+        <v>12</v>
+      </c>
+      <c r="ALT1004">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1005">
+        <v>2</v>
+      </c>
+      <c r="ALN1005">
+        <v>13</v>
+      </c>
+      <c r="ALO1005" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1005">
+        <v>7</v>
+      </c>
+      <c r="ALQ1005">
+        <v>9</v>
+      </c>
+      <c r="ALR1005" t="s">
+        <v>13</v>
+      </c>
+      <c r="ALT1005">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1006">
+        <v>3</v>
+      </c>
+      <c r="ALN1006">
+        <v>6</v>
+      </c>
+      <c r="ALO1006" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1006">
+        <v>12</v>
+      </c>
+      <c r="ALQ1006">
+        <v>13</v>
+      </c>
+      <c r="ALR1006" t="s">
+        <v>18</v>
+      </c>
+      <c r="ALT1006">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1007" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1007">
+        <v>4</v>
+      </c>
+      <c r="ALN1007">
+        <v>6</v>
+      </c>
+      <c r="ALO1007" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1007">
+        <v>17</v>
+      </c>
+      <c r="ALQ1007">
+        <v>13</v>
+      </c>
+      <c r="ALR1007" t="s">
+        <v>19</v>
+      </c>
+      <c r="ALT1007">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1008">
+        <v>5</v>
+      </c>
+      <c r="ALN1008">
+        <v>6</v>
+      </c>
+      <c r="ALO1008" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1008">
+        <v>22</v>
+      </c>
+      <c r="ALQ1008">
+        <v>13</v>
+      </c>
+      <c r="ALR1008" t="s">
+        <v>20</v>
+      </c>
+      <c r="ALT1008">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1009">
+        <v>6</v>
+      </c>
+      <c r="ALN1009">
+        <v>13</v>
+      </c>
+      <c r="ALO1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="ALP1009">
+        <v>17</v>
+      </c>
+      <c r="ALQ1009">
+        <v>9</v>
+      </c>
+      <c r="ALR1009" t="s">
+        <v>14</v>
+      </c>
+      <c r="ALT1009">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1010" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1010">
+        <v>7</v>
+      </c>
+      <c r="ALN1010">
+        <v>12</v>
+      </c>
+      <c r="ALO1010" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1010">
+        <v>27</v>
+      </c>
+      <c r="ALQ1010">
+        <v>13</v>
+      </c>
+      <c r="ALR1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="ALT1010">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1011" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1011">
+        <v>8</v>
+      </c>
+      <c r="ALN1011">
+        <v>11</v>
+      </c>
+      <c r="ALO1011" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1011">
+        <v>32</v>
+      </c>
+      <c r="ALQ1011">
+        <v>17</v>
+      </c>
+      <c r="ALR1011" t="s">
+        <v>18</v>
+      </c>
+      <c r="ALT1011">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1012" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1012">
+        <v>9</v>
+      </c>
+      <c r="ALN1012">
+        <v>11</v>
+      </c>
+      <c r="ALO1012" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1012">
+        <v>37</v>
+      </c>
+      <c r="ALQ1012">
+        <v>17</v>
+      </c>
+      <c r="ALR1012" t="s">
+        <v>19</v>
+      </c>
+      <c r="ALT1012">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1013">
+        <v>10</v>
+      </c>
+      <c r="ALN1013">
+        <v>11</v>
+      </c>
+      <c r="ALO1013" t="s">
+        <v>8</v>
+      </c>
+      <c r="ALP1013">
+        <v>42</v>
+      </c>
+      <c r="ALQ1013">
+        <v>17</v>
+      </c>
+      <c r="ALR1013" t="s">
+        <v>20</v>
+      </c>
+      <c r="ALT1013">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1014">
+        <v>11</v>
+      </c>
+      <c r="ALN1014">
+        <v>12</v>
+      </c>
+      <c r="ALO1014" t="s">
+        <v>11</v>
+      </c>
+      <c r="ALP1014">
+        <v>37</v>
+      </c>
+      <c r="ALQ1014">
+        <v>13</v>
+      </c>
+      <c r="ALR1014" t="s">
+        <v>17</v>
+      </c>
+      <c r="ALT1014">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1015" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1015">
+        <v>12</v>
+      </c>
+      <c r="ALN1015">
+        <v>13</v>
+      </c>
+      <c r="ALO1015" t="s">
+        <v>9</v>
+      </c>
+      <c r="ALP1015">
+        <v>32</v>
+      </c>
+      <c r="ALQ1015">
+        <v>9</v>
+      </c>
+      <c r="ALR1015" t="s">
+        <v>16</v>
+      </c>
+      <c r="ALT1015">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1016" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1016">
+        <v>13</v>
+      </c>
+      <c r="ALN1016">
+        <v>14</v>
+      </c>
+      <c r="ALO1016" t="s">
+        <v>11</v>
+      </c>
+      <c r="ALP1016">
+        <v>19</v>
+      </c>
+      <c r="ALQ1016">
+        <v>5</v>
+      </c>
+      <c r="ALR1016" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALT1016">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1017" spans="1001:1008" x14ac:dyDescent="0.35">
+      <c r="ALM1017">
+        <v>14</v>
+      </c>
+      <c r="ALN1017">
+        <v>0</v>
+      </c>
+      <c r="ALO1017" t="s">
+        <v>9</v>
+      </c>
+      <c r="ALP1017">
+        <v>10</v>
+      </c>
+      <c r="ALQ1017">
+        <v>1</v>
+      </c>
+      <c r="ALR1017" t="s">
+        <v>10</v>
+      </c>
+      <c r="ALS1017">
+        <v>0</v>
+      </c>
+      <c r="ALT1017">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004556E-934C-4078-9F8A-DC164B820FA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779BE29-FEF8-4926-9FA0-B0F9F251FEB8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -395,30 +4818,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004556E-934C-4078-9F8A-DC164B820FA9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779BE29-FEF8-4926-9FA0-B0F9F251FEB8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/assessment2/assessment2_calcs.xlsx
+++ b/assessment2/assessment2_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB809AA-E316-42D8-89FD-2E502FF3CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF1618A-5C75-48CB-BE4A-450E627A451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -119,12 +119,89 @@
   <si>
     <t>TASK 2</t>
   </si>
+  <si>
+    <t>Closeness to Customers</t>
+  </si>
+  <si>
+    <t>Size of Site</t>
+  </si>
+  <si>
+    <t>Car-parking Facilities</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>Working Environment</t>
+  </si>
+  <si>
+    <t>Attribute Weights</t>
+  </si>
+  <si>
+    <t>Benefit Values</t>
+  </si>
+  <si>
+    <t>Queanbeyan</t>
+  </si>
+  <si>
+    <t>Bungendore Dr</t>
+  </si>
+  <si>
+    <t>Isabella St</t>
+  </si>
+  <si>
+    <t>Jerabomberra</t>
+  </si>
+  <si>
+    <t>Karabar</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Normalised</t>
+  </si>
+  <si>
+    <t>Aggregate Benefit</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Bungendore Drive</t>
+  </si>
+  <si>
+    <t>Isabella Street</t>
+  </si>
+  <si>
+    <t>Rates ($)</t>
+  </si>
+  <si>
+    <t>Power ($)</t>
+  </si>
+  <si>
+    <t>Maintenance ($)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Efficient Frontier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +211,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -238,12 +322,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -257,12 +341,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,6 +371,1289 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Benefit Value vs Total Cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{218DC450-D9B0-42AF-A5AF-E76142016243}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E705-4A3C-8F03-CF4AF037059A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9173665791776027E-2"/>
+                  <c:y val="-6.2465368912219307E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{021491CF-D138-493E-9FA5-384A05C09DC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E705-4A3C-8F03-CF4AF037059A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13324321959755037"/>
+                  <c:y val="-5.3206109652960132E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{721BE6FA-B7FA-479C-B088-5CED3FD14983}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E705-4A3C-8F03-CF4AF037059A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14759033245844269"/>
+                  <c:y val="3.9386482939632463E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7CE4BB39-F2AC-4C35-A2BC-F3220FB66A39}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E705-4A3C-8F03-CF4AF037059A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C00C1BCB-B791-4EBF-838A-32A6FFC95350}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E705-4A3C-8F03-CF4AF037059A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:softEdge rad="0"/>
+                    </a:effectLst>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$F$26:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0_ ;\-0\ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$C$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>55.483870967741943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.387096774193544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.451612903225808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.354838709677423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Task2!$C$15:$G$15</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>Queanbeyan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Bungendore Dr</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Isabella St</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jerabomberra</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Karabar</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E705-4A3C-8F03-CF4AF037059A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1641512032"/>
+        <c:axId val="1641512864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1641512032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+          <c:min val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Cost ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_ ;\-#,##0\ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641512864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1641512864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Benefit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641512032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3039,6 +4417,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA396E5-6219-47F2-99C7-5A3548B02305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3367,1060 +4788,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="10" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="3">
+      <c r="A5" s="6"/>
+      <c r="S5" s="2">
         <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="A6" s="6"/>
+      <c r="E6">
         <f>S5</f>
         <v>750</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="11">
+      <c r="A8" s="6"/>
+      <c r="H8" s="10">
         <v>0.1</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="3"/>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="A9" s="6"/>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="3"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="3">
+      <c r="A10" s="6"/>
+      <c r="S10" s="2">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="A11" s="6"/>
+      <c r="I11">
         <f>S10</f>
         <v>400</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="11">
+      <c r="A13" s="6"/>
+      <c r="L13" s="10">
         <v>0.2</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <f>MIN(E6,E23)</f>
         <v>670</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="3">
+      <c r="A15" s="6"/>
+      <c r="S15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1">
+      <c r="A16" s="6"/>
+      <c r="M16">
         <f>S15</f>
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="11">
+      <c r="A18" s="6"/>
+      <c r="H18" s="10">
         <v>0.4</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>0.5</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="3"/>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="A19" s="6"/>
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="3">
+      <c r="A20" s="6"/>
+      <c r="S20" s="2">
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="6"/>
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="I21">
         <f>IF(ABS(1-SUM(L13,L18,L23))&lt;=0.00001,SUM(L13 * M16,L18 * M21,L23 * M26),NA())</f>
         <v>825</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
+      <c r="M21">
         <f>S20</f>
         <v>750</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="3"/>
+      <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
+      <c r="A23" s="6"/>
+      <c r="E23">
         <f>IF(ABS(1-SUM(H8,H18,H33))&lt;=0.00001,SUM(H8 * I11,H18 * I21,H33 * I36),NA())</f>
         <v>670</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>0.3</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="3"/>
+      <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
+      <c r="A24" s="6"/>
+      <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="3"/>
+      <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="3">
+      <c r="A25" s="6"/>
+      <c r="S25" s="2">
         <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
+      <c r="A26" s="6"/>
+      <c r="M26">
         <f>S25</f>
         <v>1500</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="3"/>
+      <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="3"/>
+      <c r="A28" s="6"/>
+      <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
+      <c r="A29" s="6"/>
+      <c r="L29" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="3"/>
+      <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="3">
+      <c r="A30" s="6"/>
+      <c r="S30" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
+      <c r="A31" s="6"/>
+      <c r="M31">
         <f>S30</f>
         <v>600</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="3"/>
+      <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="3"/>
+      <c r="A32" s="6"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="11">
+      <c r="A33" s="6"/>
+      <c r="H33" s="10">
         <v>0.5</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="11">
+      <c r="P33" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="3"/>
+      <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
+      <c r="A34" s="6"/>
+      <c r="H34" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
+      <c r="P34" t="s">
         <v>18</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="3"/>
+      <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="3">
+      <c r="A35" s="6"/>
+      <c r="S35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1">
+      <c r="A36" s="6"/>
+      <c r="I36">
         <f>MIN(M31,M41)</f>
         <v>600</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1">
+      <c r="Q36">
         <f>S35</f>
         <v>0</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="3"/>
+      <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="3"/>
+      <c r="A37" s="6"/>
+      <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="11">
+      <c r="A38" s="6"/>
+      <c r="P38" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="3"/>
+      <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
+      <c r="A39" s="6"/>
+      <c r="L39" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
+      <c r="P39" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="3"/>
+      <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="3">
+      <c r="A40" s="6"/>
+      <c r="S40" s="2">
         <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1">
+      <c r="A41" s="6"/>
+      <c r="M41">
         <f>IF(ABS(1-SUM(P33,P38,P43))&lt;=0.00001,SUM(P33 * Q36,P38 * Q41,P43 * Q46),NA())</f>
         <v>825</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1">
+      <c r="Q41">
         <f>S40</f>
         <v>750</v>
       </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="3"/>
+      <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="3"/>
+      <c r="A42" s="6"/>
+      <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="11">
+      <c r="A43" s="6"/>
+      <c r="P43" s="10">
         <v>0.3</v>
       </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="3"/>
+      <c r="S43" s="2"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1" t="s">
+      <c r="A44" s="6"/>
+      <c r="P44" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="3"/>
+      <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="3">
+      <c r="A45" s="6"/>
+      <c r="S45" s="2">
         <v>1500</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="7"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1">
+      <c r="A46" s="6"/>
+      <c r="Q46">
         <f>S45</f>
         <v>1500</v>
       </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="3"/>
+      <c r="S46" s="2"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="4"/>
     </row>
     <row r="993" spans="1001:1008" x14ac:dyDescent="0.35">
       <c r="ALN993" t="s">
@@ -4787,21 +5512,377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004556E-934C-4078-9F8A-DC164B820FA9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="7.9140625" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="2000" max="2000" width="2.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7" s="14">
+        <f>C7/SUM($C$7:$C$11)*100</f>
+        <v>22.58064516129032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D11" si="0">C8/SUM($C$7:$C$11)*100</f>
+        <v>32.258064516129032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>29.032258064516132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>12.903225806451612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>70</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="13">
+        <f>SUMPRODUCT(C16:C20,$D$7:$D$11)/100</f>
+        <v>55.483870967741943</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" ref="D21:G21" si="1">SUMPRODUCT(D16:D20,$D$7:$D$11)/100</f>
+        <v>57.41935483870968</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>58.387096774193544</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="1"/>
+        <v>56.451612903225808</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="1"/>
+        <v>89.354838709677423</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="16">
+        <v>105000</v>
+      </c>
+      <c r="D26" s="16">
+        <v>50000</v>
+      </c>
+      <c r="E26" s="16">
+        <v>25000</v>
+      </c>
+      <c r="F26" s="17">
+        <f>SUM(C26:E26)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="16">
+        <v>60000</v>
+      </c>
+      <c r="D27" s="16">
+        <v>40000</v>
+      </c>
+      <c r="E27" s="16">
+        <v>40000</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" ref="F27:F30" si="2">SUM(C27:E27)</f>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="16">
+        <v>35000</v>
+      </c>
+      <c r="D28" s="16">
+        <v>45000</v>
+      </c>
+      <c r="E28" s="16">
+        <v>45000</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="2"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="16">
+        <v>75000</v>
+      </c>
+      <c r="D29" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E29" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="2"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="16">
+        <v>90000</v>
+      </c>
+      <c r="D30" s="16">
+        <v>25000</v>
+      </c>
+      <c r="E30" s="16">
+        <v>50000</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="2"/>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/assessment2/assessment2_calcs.xlsx
+++ b/assessment2/assessment2_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF1618A-5C75-48CB-BE4A-450E627A451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B162B9B-49F8-4F98-BC52-ED87C5199CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
@@ -42,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -165,9 +187,6 @@
     <t>Aggregate Benefit</t>
   </si>
   <si>
-    <t>SMART</t>
-  </si>
-  <si>
     <t>Costs</t>
   </si>
   <si>
@@ -183,13 +202,67 @@
     <t>Power ($)</t>
   </si>
   <si>
-    <t>Maintenance ($)</t>
+    <t>Efficient Frontier</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>SMART Analysis</t>
   </si>
   <si>
-    <t>Efficient Frontier</t>
+    <t>Total ($)</t>
+  </si>
+  <si>
+    <t>Closeness</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Car-Parking</t>
+  </si>
+  <si>
+    <t>Raw Weight</t>
+  </si>
+  <si>
+    <t>Maint ($)</t>
+  </si>
+  <si>
+    <t>Work Env</t>
+  </si>
+  <si>
+    <t>New Normalised Weights</t>
+  </si>
+  <si>
+    <t>New Benefit Values</t>
+  </si>
+  <si>
+    <t>Que.</t>
+  </si>
+  <si>
+    <t>Bun.</t>
+  </si>
+  <si>
+    <t>Isa.</t>
+  </si>
+  <si>
+    <t>Jer.</t>
+  </si>
+  <si>
+    <t>Kar.</t>
+  </si>
+  <si>
+    <t>New Raw Sum</t>
+  </si>
+  <si>
+    <t>Sensitivity Analyses</t>
+  </si>
+  <si>
+    <t>1: Size of Site</t>
+  </si>
+  <si>
+    <t>2: Car-Parking</t>
+  </si>
+  <si>
+    <t>3: Closeness</t>
   </si>
 </sst>
 </file>
@@ -326,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -355,6 +428,16 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -394,16 +477,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -426,16 +506,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -444,13 +521,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10492441609355793"/>
+          <c:y val="0.12623029017599696"/>
+          <c:w val="0.83849330542542944"/>
+          <c:h val="0.72993111575361158"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>all benefits and costs</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -481,7 +571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{218DC450-D9B0-42AF-A5AF-E76142016243}" type="CELLRANGE">
+                    <a:fld id="{FBB962CD-2968-48FC-9CBF-ABEF3EEEC9FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -511,8 +601,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9173665791776027E-2"/>
-                  <c:y val="-6.2465368912219307E-2"/>
+                  <c:x val="-1.6933110633898102E-2"/>
+                  <c:y val="-3.8796766528444299E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -520,7 +610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{021491CF-D138-493E-9FA5-384A05C09DC6}" type="CELLRANGE">
+                    <a:fld id="{79B85AC4-CF6F-4385-B26E-1A371D71A938}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -550,8 +640,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13324321959755037"/>
-                  <c:y val="-5.3206109652960132E-2"/>
+                  <c:x val="-0.10569503192266257"/>
+                  <c:y val="-3.249615617574441E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -559,7 +649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{721BE6FA-B7FA-479C-B088-5CED3FD14983}" type="CELLRANGE">
+                    <a:fld id="{9D9C0C95-2343-4955-8A38-C1C896CBE874}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -589,8 +679,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14759033245844269"/>
-                  <c:y val="3.9386482939632463E-2"/>
+                  <c:x val="-0.10167660860574246"/>
+                  <c:y val="2.7552066346736244E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -598,7 +688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CE4BB39-F2AC-4C35-A2BC-F3220FB66A39}" type="CELLRANGE">
+                    <a:fld id="{6C7E001F-CF7A-4EE2-AFC1-CEEA1188A60A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -626,13 +716,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0725508484993094E-2"/>
+                  <c:y val="-3.7721893491124259E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C00C1BCB-B791-4EBF-838A-32A6FFC95350}" type="CELLRANGE">
-                      <a:rPr lang="en-AU"/>
+                    <a:fld id="{1C0BAB4B-32E8-4EF5-9BA8-D9934579C982}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -640,7 +736,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -650,7 +746,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -666,22 +761,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -788,6 +878,74 @@
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E705-4A3C-8F03-CF4AF037059A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>efficient frontier</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Task2!$F$28,Task2!$F$30)</c:f>
+              <c:numCache>
+                <c:formatCode>0_ ;\-0\ </c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Task2!$E$21,Task2!$G$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>58.387096774193544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.354838709677423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E198-4FD6-A0E1-832E0C9EB5E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -834,25 +992,17 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Total</a:t>
+                  <a:t>Total Cost ($/1000)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> Cost ($)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -871,14 +1021,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -907,16 +1054,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -925,6 +1069,9 @@
         <c:crossAx val="1641512864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="1641512864"/>
@@ -957,23 +1104,16 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Benefit</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> Value</a:t>
+                  <a:t>Benefit Value</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -993,14 +1133,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1029,16 +1166,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1087,7 +1221,3203 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Benefit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Value vs Weight of Size Attribute</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15421449063053164"/>
+          <c:y val="0.13317773788150808"/>
+          <c:w val="0.74328853079411594"/>
+          <c:h val="0.7073848937644015"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Queanbeyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$J$61:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>48.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.434782608695649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.928571428571431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.482758620689658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.483870967741943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59C7-4DB7-BFF9-FED0485D3280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bungendore Drive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$K$61:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.761904761904759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.391304347826093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.461538461538453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.379310344827587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.41935483870968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59C7-4DB7-BFF9-FED0485D3280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isabella Street</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$L$61:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>38.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.913043478260867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.384615384615387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.222222222222229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.928571428571431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.517241379310342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.387096774193544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-59C7-4DB7-BFF9-FED0485D3280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jerabomberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$M$61:$M$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.238095238095227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.260869565217398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.583333333333343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.962962962962955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.928571428571431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.827586206896548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.451612903225808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-59C7-4DB7-BFF9-FED0485D3280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Karabar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$N$61:$N$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.652173913043455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.777777777777757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.214285714285722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.354838709677423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-59C7-4DB7-BFF9-FED0485D3280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1439658752"/>
+        <c:axId val="1439652512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1439658752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Weight of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Size Attribute</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1439652512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1439652512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Benefit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1439658752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67668362573099428"/>
+          <c:y val="0.57590023148148151"/>
+          <c:w val="0.19038947368421053"/>
+          <c:h val="0.23444328703703704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Benefit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Value vs Weight of Car-Parking Attribute</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15421449063053164"/>
+          <c:y val="0.13317773788150808"/>
+          <c:w val="0.74328853079411594"/>
+          <c:h val="0.7073848937644015"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Queanbeyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$J$98:$J$108</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.95652173913043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.769230769230781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.793103448275872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.483870967741943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E98-4A9B-A0E4-958C982802F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bungendore Drive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$K$98:$K$108</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.608695652173907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.230769230769226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.482758620689658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E98-4A9B-A0E4-958C982802F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isabella Street</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$L$98:$L$108</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.260869565217405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.846153846153854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.592592592592588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.344827586206904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.387096774193544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E98-4A9B-A0E4-958C982802F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jerabomberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$M$98:$M$108</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>71.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.130434782608702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.083333333333343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.461538461538467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.851851851851841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.357142857142854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.96551724137931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.66666666666665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.451612903225808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.3125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E98-4A9B-A0E4-958C982802F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Karabar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$N$98:$N$108</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>93.181818181818187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.608695652173921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.083333333333343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.153846153846146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.740740740740733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.357142857142861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.354838709677423</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E98-4A9B-A0E4-958C982802F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1439658752"/>
+        <c:axId val="1439652512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1439658752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Weight of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Car-Parking Attribute</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1439652512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1439652512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Benefit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1439658752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67668362573099428"/>
+          <c:y val="0.57590023148148151"/>
+          <c:w val="0.19038947368421053"/>
+          <c:h val="0.23444328703703704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Benefit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Value vs Weight of Closeness Attribute</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15421449063053164"/>
+          <c:y val="0.13317773788150808"/>
+          <c:w val="0.74328853079411594"/>
+          <c:h val="0.7073848937644015"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Queanbeyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$J$135:$J$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>71.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.15384615384616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.703703703703702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.310344827586214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.483870967741943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.121212121212118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.588235294117652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78EA-444C-988F-A7071B4ECF0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bungendore Drive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$K$135:$K$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.55555555555555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.071428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.551724137931032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.18181818181818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.529411764705884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78EA-444C-988F-A7071B4ECF0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isabella Street</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$L$135:$L$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.846153846153854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.592592592592588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.344827586206904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.387096774193544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.882352941176471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78EA-444C-988F-A7071B4ECF0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jerabomberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$M$135:$M$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43.750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.076923076923087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.785714285714292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.448275862068975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.451612903225808</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.294117647058826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78EA-444C-988F-A7071B4ECF0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Task2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Karabar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task2!$C$61:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task2!$N$135:$N$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.230769230769241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.259259259259252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.310344827586221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.354838709677423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.393939393939405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.411764705882362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-78EA-444C-988F-A7071B4ECF0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1439658752"/>
+        <c:axId val="1439652512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1439658752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Weight of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Closeness Attribute</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1439652512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1439652512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Benefit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1439658752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67668362573099428"/>
+          <c:y val="0.57590023148148151"/>
+          <c:w val="0.19038947368421053"/>
+          <c:h val="0.23444328703703704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1140,7 +4470,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4432,10 +9430,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>92076</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>458250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>186150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4462,7 +9460,170 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>458250</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>186150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1785F5DB-BB30-4594-814D-EB42AA5B40F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>458250</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>186150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B422508-E236-46D6-89D5-180B2D69980F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>458250</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>186150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325CEF08-177D-4929-BDEC-28486081514C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37006</cdr:x>
+      <cdr:y>0.36391</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52433</cdr:x>
+      <cdr:y>0.42012</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55BEFEE-E13B-586E-0F1A-500768E94EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2559050" y="1562100"/>
+          <a:ext cx="1066800" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" i="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>efficient frontier</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4767,7 +9928,7 @@
   </sheetPr>
   <dimension ref="A1:ALT1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5512,21 +10673,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004556E-934C-4078-9F8A-DC164B820FA9}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="7.9140625" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="14" width="7.58203125" customWidth="1"/>
     <col min="2000" max="2000" width="2.4140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5540,7 +10700,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -5660,7 +10820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -5680,7 +10840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -5700,7 +10860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -5720,7 +10880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -5740,7 +10900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
@@ -5765,26 +10925,26 @@
         <v>89.354838709677423</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="E25" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -5802,9 +10962,9 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="16">
         <v>60000</v>
@@ -5819,10 +10979,12 @@
         <f t="shared" ref="F27:F30" si="2">SUM(C27:E27)</f>
         <v>140000</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="16">
         <v>35000</v>
@@ -5837,8 +10999,10 @@
         <f t="shared" si="2"/>
         <v>125000</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="J28" s="12"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -5855,8 +11019,10 @@
         <f t="shared" si="2"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="J29" s="19"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -5874,12 +11040,2145 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J33" s="12"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J34" s="19"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="11"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C60" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="F60" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" s="14">
+        <f>SUM($C$7:$C$11)-$C$8+C61</f>
+        <v>210</v>
+      </c>
+      <c r="E61" s="14">
+        <f>$C$7/D61*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F61" s="14">
+        <f>$C61/D61*100</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
+        <f>$C$9/D61*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="H61" s="14">
+        <f>$C$10/D61*100</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="I61" s="14">
+        <f>$C$11/D61*100</f>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="J61" s="13" cm="1">
+        <f t="array" ref="J61">SUMPRODUCT(TRANSPOSE($E61:$I61),C$16:C$20)/100</f>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="K61" s="13" cm="1">
+        <f t="array" ref="K61">SUMPRODUCT(TRANSPOSE($E61:$I61),D$16:D$20)/100</f>
+        <v>84.761904761904759</v>
+      </c>
+      <c r="L61" s="13" cm="1">
+        <f t="array" ref="L61">SUMPRODUCT(TRANSPOSE($E61:$I61),E$16:E$20)/100</f>
+        <v>38.571428571428569</v>
+      </c>
+      <c r="M61" s="13" cm="1">
+        <f t="array" ref="M61">SUMPRODUCT(TRANSPOSE($E61:$I61),F$16:F$20)/100</f>
+        <v>45.238095238095227</v>
+      </c>
+      <c r="N61" s="13" cm="1">
+        <f t="array" ref="N61">SUMPRODUCT(TRANSPOSE($E61:$I61),G$16:G$20)/100</f>
+        <v>84.285714285714278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" s="14">
+        <f t="shared" ref="D62:D71" si="3">SUM($C$7:$C$11)-$C$8+C62</f>
+        <v>220</v>
+      </c>
+      <c r="E62" s="14">
+        <f t="shared" ref="E62:E71" si="4">$C$7/D62*100</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" ref="F62:F71" si="5">$C62/D62*100</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="G62" s="14">
+        <f t="shared" ref="G62:G71" si="6">$C$9/D62*100</f>
+        <v>40.909090909090914</v>
+      </c>
+      <c r="H62" s="14">
+        <f t="shared" ref="H62:H71" si="7">$C$10/D62*100</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="I62" s="14">
+        <f t="shared" ref="I62:I71" si="8">$C$11/D62*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="J62" s="13" cm="1">
+        <f t="array" ref="J62">SUMPRODUCT(TRANSPOSE($E62:$I62),C$16:C$20)/100</f>
+        <v>49.545454545454547</v>
+      </c>
+      <c r="K62" s="13" cm="1">
+        <f t="array" ref="K62">SUMPRODUCT(TRANSPOSE($E62:$I62),D$16:D$20)/100</f>
+        <v>80.909090909090907</v>
+      </c>
+      <c r="L62" s="13" cm="1">
+        <f t="array" ref="L62">SUMPRODUCT(TRANSPOSE($E62:$I62),E$16:E$20)/100</f>
+        <v>41.363636363636367</v>
+      </c>
+      <c r="M62" s="13" cm="1">
+        <f t="array" ref="M62">SUMPRODUCT(TRANSPOSE($E62:$I62),F$16:F$20)/100</f>
+        <v>46.818181818181813</v>
+      </c>
+      <c r="N62" s="13" cm="1">
+        <f t="array" ref="N62">SUMPRODUCT(TRANSPOSE($E62:$I62),G$16:G$20)/100</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" si="4"/>
+        <v>30.434782608695656</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="5"/>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="G63" s="14">
+        <f t="shared" si="6"/>
+        <v>39.130434782608695</v>
+      </c>
+      <c r="H63" s="14">
+        <f t="shared" si="7"/>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="8"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="J63" s="13" cm="1">
+        <f t="array" ref="J63">SUMPRODUCT(TRANSPOSE($E63:$I63),C$16:C$20)/100</f>
+        <v>50.434782608695649</v>
+      </c>
+      <c r="K63" s="13" cm="1">
+        <f t="array" ref="K63">SUMPRODUCT(TRANSPOSE($E63:$I63),D$16:D$20)/100</f>
+        <v>77.391304347826093</v>
+      </c>
+      <c r="L63" s="13" cm="1">
+        <f t="array" ref="L63">SUMPRODUCT(TRANSPOSE($E63:$I63),E$16:E$20)/100</f>
+        <v>43.913043478260867</v>
+      </c>
+      <c r="M63" s="13" cm="1">
+        <f t="array" ref="M63">SUMPRODUCT(TRANSPOSE($E63:$I63),F$16:F$20)/100</f>
+        <v>48.260869565217398</v>
+      </c>
+      <c r="N63" s="13" cm="1">
+        <f t="array" ref="N63">SUMPRODUCT(TRANSPOSE($E63:$I63),G$16:G$20)/100</f>
+        <v>85.652173913043455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64" s="14">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="4"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="G64" s="14">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="H64" s="14">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="I64" s="14">
+        <f t="shared" si="8"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J64" s="13" cm="1">
+        <f t="array" ref="J64">SUMPRODUCT(TRANSPOSE($E64:$I64),C$16:C$20)/100</f>
+        <v>51.25</v>
+      </c>
+      <c r="K64" s="13" cm="1">
+        <f t="array" ref="K64">SUMPRODUCT(TRANSPOSE($E64:$I64),D$16:D$20)/100</f>
+        <v>74.166666666666671</v>
+      </c>
+      <c r="L64" s="13" cm="1">
+        <f t="array" ref="L64">SUMPRODUCT(TRANSPOSE($E64:$I64),E$16:E$20)/100</f>
+        <v>46.25</v>
+      </c>
+      <c r="M64" s="13" cm="1">
+        <f t="array" ref="M64">SUMPRODUCT(TRANSPOSE($E64:$I64),F$16:F$20)/100</f>
+        <v>49.583333333333343</v>
+      </c>
+      <c r="N64" s="13" cm="1">
+        <f t="array" ref="N64">SUMPRODUCT(TRANSPOSE($E64:$I64),G$16:G$20)/100</f>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65" s="14">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="E65" s="14">
+        <f t="shared" si="4"/>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G65" s="14">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H65" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I65" s="14">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J65" s="13" cm="1">
+        <f t="array" ref="J65">SUMPRODUCT(TRANSPOSE($E65:$I65),C$16:C$20)/100</f>
+        <v>52</v>
+      </c>
+      <c r="K65" s="13" cm="1">
+        <f t="array" ref="K65">SUMPRODUCT(TRANSPOSE($E65:$I65),D$16:D$20)/100</f>
+        <v>71.2</v>
+      </c>
+      <c r="L65" s="13" cm="1">
+        <f t="array" ref="L65">SUMPRODUCT(TRANSPOSE($E65:$I65),E$16:E$20)/100</f>
+        <v>48.4</v>
+      </c>
+      <c r="M65" s="13" cm="1">
+        <f t="array" ref="M65">SUMPRODUCT(TRANSPOSE($E65:$I65),F$16:F$20)/100</f>
+        <v>50.8</v>
+      </c>
+      <c r="N65" s="13" cm="1">
+        <f t="array" ref="N65">SUMPRODUCT(TRANSPOSE($E65:$I65),G$16:G$20)/100</f>
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66" s="14">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="E66" s="14">
+        <f t="shared" si="4"/>
+        <v>26.923076923076923</v>
+      </c>
+      <c r="F66" s="14">
+        <f t="shared" si="5"/>
+        <v>19.230769230769234</v>
+      </c>
+      <c r="G66" s="14">
+        <f t="shared" si="6"/>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="H66" s="14">
+        <f t="shared" si="7"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="I66" s="14">
+        <f t="shared" si="8"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J66" s="13" cm="1">
+        <f t="array" ref="J66">SUMPRODUCT(TRANSPOSE($E66:$I66),C$16:C$20)/100</f>
+        <v>52.692307692307693</v>
+      </c>
+      <c r="K66" s="13" cm="1">
+        <f t="array" ref="K66">SUMPRODUCT(TRANSPOSE($E66:$I66),D$16:D$20)/100</f>
+        <v>68.461538461538453</v>
+      </c>
+      <c r="L66" s="13" cm="1">
+        <f t="array" ref="L66">SUMPRODUCT(TRANSPOSE($E66:$I66),E$16:E$20)/100</f>
+        <v>50.384615384615387</v>
+      </c>
+      <c r="M66" s="13" cm="1">
+        <f t="array" ref="M66">SUMPRODUCT(TRANSPOSE($E66:$I66),F$16:F$20)/100</f>
+        <v>51.923076923076927</v>
+      </c>
+      <c r="N66" s="13" cm="1">
+        <f t="array" ref="N66">SUMPRODUCT(TRANSPOSE($E66:$I66),G$16:G$20)/100</f>
+        <v>87.307692307692307</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>60</v>
+      </c>
+      <c r="D67" s="14">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="E67" s="14">
+        <f t="shared" si="4"/>
+        <v>25.925925925925924</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" si="5"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="G67" s="14">
+        <f t="shared" si="6"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H67" s="14">
+        <f t="shared" si="7"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="I67" s="14">
+        <f t="shared" si="8"/>
+        <v>14.814814814814813</v>
+      </c>
+      <c r="J67" s="13" cm="1">
+        <f t="array" ref="J67">SUMPRODUCT(TRANSPOSE($E67:$I67),C$16:C$20)/100</f>
+        <v>53.333333333333329</v>
+      </c>
+      <c r="K67" s="13" cm="1">
+        <f t="array" ref="K67">SUMPRODUCT(TRANSPOSE($E67:$I67),D$16:D$20)/100</f>
+        <v>65.925925925925924</v>
+      </c>
+      <c r="L67" s="13" cm="1">
+        <f t="array" ref="L67">SUMPRODUCT(TRANSPOSE($E67:$I67),E$16:E$20)/100</f>
+        <v>52.222222222222229</v>
+      </c>
+      <c r="M67" s="13" cm="1">
+        <f t="array" ref="M67">SUMPRODUCT(TRANSPOSE($E67:$I67),F$16:F$20)/100</f>
+        <v>52.962962962962955</v>
+      </c>
+      <c r="N67" s="13" cm="1">
+        <f t="array" ref="N67">SUMPRODUCT(TRANSPOSE($E67:$I67),G$16:G$20)/100</f>
+        <v>87.777777777777757</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>70</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="E68" s="14">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="G68" s="14">
+        <f t="shared" si="6"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="H68" s="14">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="I68" s="14">
+        <f t="shared" si="8"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J68" s="13" cm="1">
+        <f t="array" ref="J68">SUMPRODUCT(TRANSPOSE($E68:$I68),C$16:C$20)/100</f>
+        <v>53.928571428571431</v>
+      </c>
+      <c r="K68" s="13" cm="1">
+        <f t="array" ref="K68">SUMPRODUCT(TRANSPOSE($E68:$I68),D$16:D$20)/100</f>
+        <v>63.571428571428569</v>
+      </c>
+      <c r="L68" s="13" cm="1">
+        <f t="array" ref="L68">SUMPRODUCT(TRANSPOSE($E68:$I68),E$16:E$20)/100</f>
+        <v>53.928571428571431</v>
+      </c>
+      <c r="M68" s="13" cm="1">
+        <f t="array" ref="M68">SUMPRODUCT(TRANSPOSE($E68:$I68),F$16:F$20)/100</f>
+        <v>53.928571428571431</v>
+      </c>
+      <c r="N68" s="13" cm="1">
+        <f t="array" ref="N68">SUMPRODUCT(TRANSPOSE($E68:$I68),G$16:G$20)/100</f>
+        <v>88.214285714285722</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <v>80</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="E69" s="14">
+        <f t="shared" si="4"/>
+        <v>24.137931034482758</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" si="5"/>
+        <v>27.586206896551722</v>
+      </c>
+      <c r="G69" s="14">
+        <f t="shared" si="6"/>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="H69" s="14">
+        <f t="shared" si="7"/>
+        <v>3.4482758620689653</v>
+      </c>
+      <c r="I69" s="14">
+        <f t="shared" si="8"/>
+        <v>13.793103448275861</v>
+      </c>
+      <c r="J69" s="13" cm="1">
+        <f t="array" ref="J69">SUMPRODUCT(TRANSPOSE($E69:$I69),C$16:C$20)/100</f>
+        <v>54.482758620689658</v>
+      </c>
+      <c r="K69" s="13" cm="1">
+        <f t="array" ref="K69">SUMPRODUCT(TRANSPOSE($E69:$I69),D$16:D$20)/100</f>
+        <v>61.379310344827587</v>
+      </c>
+      <c r="L69" s="13" cm="1">
+        <f t="array" ref="L69">SUMPRODUCT(TRANSPOSE($E69:$I69),E$16:E$20)/100</f>
+        <v>55.517241379310342</v>
+      </c>
+      <c r="M69" s="13" cm="1">
+        <f t="array" ref="M69">SUMPRODUCT(TRANSPOSE($E69:$I69),F$16:F$20)/100</f>
+        <v>54.827586206896548</v>
+      </c>
+      <c r="N69" s="13" cm="1">
+        <f t="array" ref="N69">SUMPRODUCT(TRANSPOSE($E69:$I69),G$16:G$20)/100</f>
+        <v>88.620689655172413</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>90</v>
+      </c>
+      <c r="D70" s="14">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="E70" s="14">
+        <f t="shared" si="4"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="F70" s="14">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="G70" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="H70" s="14">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I70" s="14">
+        <f t="shared" si="8"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J70" s="13" cm="1">
+        <f t="array" ref="J70">SUMPRODUCT(TRANSPOSE($E70:$I70),C$16:C$20)/100</f>
+        <v>55</v>
+      </c>
+      <c r="K70" s="13" cm="1">
+        <f t="array" ref="K70">SUMPRODUCT(TRANSPOSE($E70:$I70),D$16:D$20)/100</f>
+        <v>59.333333333333329</v>
+      </c>
+      <c r="L70" s="13" cm="1">
+        <f t="array" ref="L70">SUMPRODUCT(TRANSPOSE($E70:$I70),E$16:E$20)/100</f>
+        <v>57</v>
+      </c>
+      <c r="M70" s="13" cm="1">
+        <f t="array" ref="M70">SUMPRODUCT(TRANSPOSE($E70:$I70),F$16:F$20)/100</f>
+        <v>55.666666666666657</v>
+      </c>
+      <c r="N70" s="13" cm="1">
+        <f t="array" ref="N70">SUMPRODUCT(TRANSPOSE($E70:$I70),G$16:G$20)/100</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71" s="14">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="E71" s="14">
+        <f t="shared" si="4"/>
+        <v>22.58064516129032</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" si="5"/>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="G71" s="14">
+        <f t="shared" si="6"/>
+        <v>29.032258064516132</v>
+      </c>
+      <c r="H71" s="14">
+        <f t="shared" si="7"/>
+        <v>3.225806451612903</v>
+      </c>
+      <c r="I71" s="14">
+        <f t="shared" si="8"/>
+        <v>12.903225806451612</v>
+      </c>
+      <c r="J71" s="13" cm="1">
+        <f t="array" ref="J71">SUMPRODUCT(TRANSPOSE($E71:$I71),C$16:C$20)/100</f>
+        <v>55.483870967741943</v>
+      </c>
+      <c r="K71" s="13" cm="1">
+        <f t="array" ref="K71">SUMPRODUCT(TRANSPOSE($E71:$I71),D$16:D$20)/100</f>
+        <v>57.41935483870968</v>
+      </c>
+      <c r="L71" s="13" cm="1">
+        <f t="array" ref="L71">SUMPRODUCT(TRANSPOSE($E71:$I71),E$16:E$20)/100</f>
+        <v>58.387096774193544</v>
+      </c>
+      <c r="M71" s="13" cm="1">
+        <f t="array" ref="M71">SUMPRODUCT(TRANSPOSE($E71:$I71),F$16:F$20)/100</f>
+        <v>56.451612903225808</v>
+      </c>
+      <c r="N71" s="13" cm="1">
+        <f t="array" ref="N71">SUMPRODUCT(TRANSPOSE($E71:$I71),G$16:G$20)/100</f>
+        <v>89.354838709677423</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B96" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C97" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L97" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" s="14">
+        <f>SUM($C$7:$C$11)-$C$9+C98</f>
+        <v>220</v>
+      </c>
+      <c r="E98" s="14">
+        <f>$C$7/D98*100</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="F98" s="14">
+        <f>$C$8/D98*100</f>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="G98" s="14">
+        <f>$C98/D98*100</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="14">
+        <f>$C$10/D98*100</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="I98" s="14">
+        <f>$C$11/D98*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="J98" s="13" cm="1">
+        <f t="array" ref="J98">SUMPRODUCT(TRANSPOSE($E98:$I98),C$16:C$20)/100</f>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="K98" s="13" cm="1">
+        <f t="array" ref="K98">SUMPRODUCT(TRANSPOSE($E98:$I98),D$16:D$20)/100</f>
+        <v>40</v>
+      </c>
+      <c r="L98" s="13" cm="1">
+        <f t="array" ref="L98">SUMPRODUCT(TRANSPOSE($E98:$I98),E$16:E$20)/100</f>
+        <v>70</v>
+      </c>
+      <c r="M98" s="13" cm="1">
+        <f t="array" ref="M98">SUMPRODUCT(TRANSPOSE($E98:$I98),F$16:F$20)/100</f>
+        <v>71.36363636363636</v>
+      </c>
+      <c r="N98" s="13" cm="1">
+        <f t="array" ref="N98">SUMPRODUCT(TRANSPOSE($E98:$I98),G$16:G$20)/100</f>
+        <v>93.181818181818187</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99" s="14">
+        <f t="shared" ref="D99:D108" si="9">SUM($C$7:$C$11)-$C$9+C99</f>
+        <v>230</v>
+      </c>
+      <c r="E99" s="14">
+        <f t="shared" ref="E99:E108" si="10">$C$7/D99*100</f>
+        <v>30.434782608695656</v>
+      </c>
+      <c r="F99" s="14">
+        <f t="shared" ref="F99:F108" si="11">$C$8/D99*100</f>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="G99" s="14">
+        <f t="shared" ref="G99:G108" si="12">$C99/D99*100</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="H99" s="14">
+        <f t="shared" ref="H99:H108" si="13">$C$10/D99*100</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="I99" s="14">
+        <f t="shared" ref="I99:I108" si="14">$C$11/D99*100</f>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="J99" s="13" cm="1">
+        <f t="array" ref="J99">SUMPRODUCT(TRANSPOSE($E99:$I99),C$16:C$20)/100</f>
+        <v>46.95652173913043</v>
+      </c>
+      <c r="K99" s="13" cm="1">
+        <f t="array" ref="K99">SUMPRODUCT(TRANSPOSE($E99:$I99),D$16:D$20)/100</f>
+        <v>42.608695652173907</v>
+      </c>
+      <c r="L99" s="13" cm="1">
+        <f t="array" ref="L99">SUMPRODUCT(TRANSPOSE($E99:$I99),E$16:E$20)/100</f>
+        <v>68.260869565217405</v>
+      </c>
+      <c r="M99" s="13" cm="1">
+        <f t="array" ref="M99">SUMPRODUCT(TRANSPOSE($E99:$I99),F$16:F$20)/100</f>
+        <v>69.130434782608702</v>
+      </c>
+      <c r="N99" s="13" cm="1">
+        <f t="array" ref="N99">SUMPRODUCT(TRANSPOSE($E99:$I99),G$16:G$20)/100</f>
+        <v>92.608695652173921</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100" s="14">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="E100" s="14">
+        <f t="shared" si="10"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="F100" s="14">
+        <f t="shared" si="11"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="G100" s="14">
+        <f t="shared" si="12"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="H100" s="14">
+        <f t="shared" si="13"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="I100" s="14">
+        <f t="shared" si="14"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J100" s="13" cm="1">
+        <f t="array" ref="J100">SUMPRODUCT(TRANSPOSE($E100:$I100),C$16:C$20)/100</f>
+        <v>48.333333333333329</v>
+      </c>
+      <c r="K100" s="13" cm="1">
+        <f t="array" ref="K100">SUMPRODUCT(TRANSPOSE($E100:$I100),D$16:D$20)/100</f>
+        <v>45</v>
+      </c>
+      <c r="L100" s="13" cm="1">
+        <f t="array" ref="L100">SUMPRODUCT(TRANSPOSE($E100:$I100),E$16:E$20)/100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="M100" s="13" cm="1">
+        <f t="array" ref="M100">SUMPRODUCT(TRANSPOSE($E100:$I100),F$16:F$20)/100</f>
+        <v>67.083333333333343</v>
+      </c>
+      <c r="N100" s="13" cm="1">
+        <f t="array" ref="N100">SUMPRODUCT(TRANSPOSE($E100:$I100),G$16:G$20)/100</f>
+        <v>92.083333333333343</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101" s="14">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="E101" s="14">
+        <f t="shared" si="10"/>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F101" s="14">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="G101" s="14">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="H101" s="14">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I101" s="14">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="J101" s="13" cm="1">
+        <f t="array" ref="J101">SUMPRODUCT(TRANSPOSE($E101:$I101),C$16:C$20)/100</f>
+        <v>49.6</v>
+      </c>
+      <c r="K101" s="13" cm="1">
+        <f t="array" ref="K101">SUMPRODUCT(TRANSPOSE($E101:$I101),D$16:D$20)/100</f>
+        <v>47.2</v>
+      </c>
+      <c r="L101" s="13" cm="1">
+        <f t="array" ref="L101">SUMPRODUCT(TRANSPOSE($E101:$I101),E$16:E$20)/100</f>
+        <v>65.2</v>
+      </c>
+      <c r="M101" s="13" cm="1">
+        <f t="array" ref="M101">SUMPRODUCT(TRANSPOSE($E101:$I101),F$16:F$20)/100</f>
+        <v>65.2</v>
+      </c>
+      <c r="N101" s="13" cm="1">
+        <f t="array" ref="N101">SUMPRODUCT(TRANSPOSE($E101:$I101),G$16:G$20)/100</f>
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C102">
+        <v>40</v>
+      </c>
+      <c r="D102" s="14">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="E102" s="14">
+        <f t="shared" si="10"/>
+        <v>26.923076923076923</v>
+      </c>
+      <c r="F102" s="14">
+        <f t="shared" si="11"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="G102" s="14">
+        <f t="shared" si="12"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H102" s="14">
+        <f t="shared" si="13"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="I102" s="14">
+        <f t="shared" si="14"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J102" s="13" cm="1">
+        <f t="array" ref="J102">SUMPRODUCT(TRANSPOSE($E102:$I102),C$16:C$20)/100</f>
+        <v>50.769230769230781</v>
+      </c>
+      <c r="K102" s="13" cm="1">
+        <f t="array" ref="K102">SUMPRODUCT(TRANSPOSE($E102:$I102),D$16:D$20)/100</f>
+        <v>49.230769230769226</v>
+      </c>
+      <c r="L102" s="13" cm="1">
+        <f t="array" ref="L102">SUMPRODUCT(TRANSPOSE($E102:$I102),E$16:E$20)/100</f>
+        <v>63.846153846153854</v>
+      </c>
+      <c r="M102" s="13" cm="1">
+        <f t="array" ref="M102">SUMPRODUCT(TRANSPOSE($E102:$I102),F$16:F$20)/100</f>
+        <v>63.461538461538467</v>
+      </c>
+      <c r="N102" s="13" cm="1">
+        <f t="array" ref="N102">SUMPRODUCT(TRANSPOSE($E102:$I102),G$16:G$20)/100</f>
+        <v>91.153846153846146</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103" s="14">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="E103" s="14">
+        <f t="shared" si="10"/>
+        <v>25.925925925925924</v>
+      </c>
+      <c r="F103" s="14">
+        <f t="shared" si="11"/>
+        <v>37.037037037037038</v>
+      </c>
+      <c r="G103" s="14">
+        <f t="shared" si="12"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="H103" s="14">
+        <f t="shared" si="13"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="I103" s="14">
+        <f t="shared" si="14"/>
+        <v>14.814814814814813</v>
+      </c>
+      <c r="J103" s="13" cm="1">
+        <f t="array" ref="J103">SUMPRODUCT(TRANSPOSE($E103:$I103),C$16:C$20)/100</f>
+        <v>51.851851851851855</v>
+      </c>
+      <c r="K103" s="13" cm="1">
+        <f t="array" ref="K103">SUMPRODUCT(TRANSPOSE($E103:$I103),D$16:D$20)/100</f>
+        <v>51.111111111111114</v>
+      </c>
+      <c r="L103" s="13" cm="1">
+        <f t="array" ref="L103">SUMPRODUCT(TRANSPOSE($E103:$I103),E$16:E$20)/100</f>
+        <v>62.592592592592588</v>
+      </c>
+      <c r="M103" s="13" cm="1">
+        <f t="array" ref="M103">SUMPRODUCT(TRANSPOSE($E103:$I103),F$16:F$20)/100</f>
+        <v>61.851851851851841</v>
+      </c>
+      <c r="N103" s="13" cm="1">
+        <f t="array" ref="N103">SUMPRODUCT(TRANSPOSE($E103:$I103),G$16:G$20)/100</f>
+        <v>90.740740740740733</v>
+      </c>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C104">
+        <v>60</v>
+      </c>
+      <c r="D104" s="14">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="E104" s="14">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="F104" s="14">
+        <f t="shared" si="11"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G104" s="14">
+        <f t="shared" si="12"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="H104" s="14">
+        <f t="shared" si="13"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="I104" s="14">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J104" s="13" cm="1">
+        <f t="array" ref="J104">SUMPRODUCT(TRANSPOSE($E104:$I104),C$16:C$20)/100</f>
+        <v>52.857142857142847</v>
+      </c>
+      <c r="K104" s="13" cm="1">
+        <f t="array" ref="K104">SUMPRODUCT(TRANSPOSE($E104:$I104),D$16:D$20)/100</f>
+        <v>52.857142857142854</v>
+      </c>
+      <c r="L104" s="13" cm="1">
+        <f t="array" ref="L104">SUMPRODUCT(TRANSPOSE($E104:$I104),E$16:E$20)/100</f>
+        <v>61.428571428571431</v>
+      </c>
+      <c r="M104" s="13" cm="1">
+        <f t="array" ref="M104">SUMPRODUCT(TRANSPOSE($E104:$I104),F$16:F$20)/100</f>
+        <v>60.357142857142854</v>
+      </c>
+      <c r="N104" s="13" cm="1">
+        <f t="array" ref="N104">SUMPRODUCT(TRANSPOSE($E104:$I104),G$16:G$20)/100</f>
+        <v>90.357142857142861</v>
+      </c>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C105">
+        <v>70</v>
+      </c>
+      <c r="D105" s="14">
+        <f t="shared" si="9"/>
+        <v>290</v>
+      </c>
+      <c r="E105" s="14">
+        <f t="shared" si="10"/>
+        <v>24.137931034482758</v>
+      </c>
+      <c r="F105" s="14">
+        <f t="shared" si="11"/>
+        <v>34.482758620689658</v>
+      </c>
+      <c r="G105" s="14">
+        <f t="shared" si="12"/>
+        <v>24.137931034482758</v>
+      </c>
+      <c r="H105" s="14">
+        <f t="shared" si="13"/>
+        <v>3.4482758620689653</v>
+      </c>
+      <c r="I105" s="14">
+        <f t="shared" si="14"/>
+        <v>13.793103448275861</v>
+      </c>
+      <c r="J105" s="13" cm="1">
+        <f t="array" ref="J105">SUMPRODUCT(TRANSPOSE($E105:$I105),C$16:C$20)/100</f>
+        <v>53.793103448275872</v>
+      </c>
+      <c r="K105" s="13" cm="1">
+        <f t="array" ref="K105">SUMPRODUCT(TRANSPOSE($E105:$I105),D$16:D$20)/100</f>
+        <v>54.482758620689658</v>
+      </c>
+      <c r="L105" s="13" cm="1">
+        <f t="array" ref="L105">SUMPRODUCT(TRANSPOSE($E105:$I105),E$16:E$20)/100</f>
+        <v>60.344827586206904</v>
+      </c>
+      <c r="M105" s="13" cm="1">
+        <f t="array" ref="M105">SUMPRODUCT(TRANSPOSE($E105:$I105),F$16:F$20)/100</f>
+        <v>58.96551724137931</v>
+      </c>
+      <c r="N105" s="13" cm="1">
+        <f t="array" ref="N105">SUMPRODUCT(TRANSPOSE($E105:$I105),G$16:G$20)/100</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C106">
+        <v>80</v>
+      </c>
+      <c r="D106" s="14">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="E106" s="14">
+        <f t="shared" si="10"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="F106" s="14">
+        <f t="shared" si="11"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G106" s="14">
+        <f t="shared" si="12"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H106" s="14">
+        <f t="shared" si="13"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I106" s="14">
+        <f t="shared" si="14"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J106" s="13" cm="1">
+        <f t="array" ref="J106">SUMPRODUCT(TRANSPOSE($E106:$I106),C$16:C$20)/100</f>
+        <v>54.666666666666657</v>
+      </c>
+      <c r="K106" s="13" cm="1">
+        <f t="array" ref="K106">SUMPRODUCT(TRANSPOSE($E106:$I106),D$16:D$20)/100</f>
+        <v>56</v>
+      </c>
+      <c r="L106" s="13" cm="1">
+        <f t="array" ref="L106">SUMPRODUCT(TRANSPOSE($E106:$I106),E$16:E$20)/100</f>
+        <v>59.333333333333329</v>
+      </c>
+      <c r="M106" s="13" cm="1">
+        <f t="array" ref="M106">SUMPRODUCT(TRANSPOSE($E106:$I106),F$16:F$20)/100</f>
+        <v>57.66666666666665</v>
+      </c>
+      <c r="N106" s="13" cm="1">
+        <f t="array" ref="N106">SUMPRODUCT(TRANSPOSE($E106:$I106),G$16:G$20)/100</f>
+        <v>89.666666666666657</v>
+      </c>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <v>90</v>
+      </c>
+      <c r="D107" s="14">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+      <c r="E107" s="14">
+        <f t="shared" si="10"/>
+        <v>22.58064516129032</v>
+      </c>
+      <c r="F107" s="14">
+        <f t="shared" si="11"/>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="G107" s="14">
+        <f t="shared" si="12"/>
+        <v>29.032258064516132</v>
+      </c>
+      <c r="H107" s="14">
+        <f t="shared" si="13"/>
+        <v>3.225806451612903</v>
+      </c>
+      <c r="I107" s="14">
+        <f t="shared" si="14"/>
+        <v>12.903225806451612</v>
+      </c>
+      <c r="J107" s="13" cm="1">
+        <f t="array" ref="J107">SUMPRODUCT(TRANSPOSE($E107:$I107),C$16:C$20)/100</f>
+        <v>55.483870967741943</v>
+      </c>
+      <c r="K107" s="13" cm="1">
+        <f t="array" ref="K107">SUMPRODUCT(TRANSPOSE($E107:$I107),D$16:D$20)/100</f>
+        <v>57.41935483870968</v>
+      </c>
+      <c r="L107" s="13" cm="1">
+        <f t="array" ref="L107">SUMPRODUCT(TRANSPOSE($E107:$I107),E$16:E$20)/100</f>
+        <v>58.387096774193544</v>
+      </c>
+      <c r="M107" s="13" cm="1">
+        <f t="array" ref="M107">SUMPRODUCT(TRANSPOSE($E107:$I107),F$16:F$20)/100</f>
+        <v>56.451612903225808</v>
+      </c>
+      <c r="N107" s="13" cm="1">
+        <f t="array" ref="N107">SUMPRODUCT(TRANSPOSE($E107:$I107),G$16:G$20)/100</f>
+        <v>89.354838709677423</v>
+      </c>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <v>100</v>
+      </c>
+      <c r="D108" s="14">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="E108" s="14">
+        <f t="shared" si="10"/>
+        <v>21.875</v>
+      </c>
+      <c r="F108" s="14">
+        <f t="shared" si="11"/>
+        <v>31.25</v>
+      </c>
+      <c r="G108" s="14">
+        <f t="shared" si="12"/>
+        <v>31.25</v>
+      </c>
+      <c r="H108" s="14">
+        <f t="shared" si="13"/>
+        <v>3.125</v>
+      </c>
+      <c r="I108" s="14">
+        <f t="shared" si="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="J108" s="13" cm="1">
+        <f t="array" ref="J108">SUMPRODUCT(TRANSPOSE($E108:$I108),C$16:C$20)/100</f>
+        <v>56.25</v>
+      </c>
+      <c r="K108" s="13" cm="1">
+        <f t="array" ref="K108">SUMPRODUCT(TRANSPOSE($E108:$I108),D$16:D$20)/100</f>
+        <v>58.75</v>
+      </c>
+      <c r="L108" s="13" cm="1">
+        <f t="array" ref="L108">SUMPRODUCT(TRANSPOSE($E108:$I108),E$16:E$20)/100</f>
+        <v>57.5</v>
+      </c>
+      <c r="M108" s="13" cm="1">
+        <f t="array" ref="M108">SUMPRODUCT(TRANSPOSE($E108:$I108),F$16:F$20)/100</f>
+        <v>55.3125</v>
+      </c>
+      <c r="N108" s="13" cm="1">
+        <f t="array" ref="N108">SUMPRODUCT(TRANSPOSE($E108:$I108),G$16:G$20)/100</f>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="13"/>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+    </row>
+    <row r="127" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+    </row>
+    <row r="128" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B133" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="20"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C134" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K134" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L134" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N134" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" s="14">
+        <f>SUM($C$7:$C$11)-$C$7+C135</f>
+        <v>240</v>
+      </c>
+      <c r="E135" s="14">
+        <f>C135/D135*100</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="14">
+        <f>$C$8/D135*100</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="G135" s="14">
+        <f>$C$9/D135*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="H135" s="14">
+        <f>$C$10/D135*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="I135" s="14">
+        <f>$C$11/D135*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J135" s="13" cm="1">
+        <f t="array" ref="J135">SUMPRODUCT(TRANSPOSE($E135:$I135),C$16:C$20)/100</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="K135" s="13" cm="1">
+        <f t="array" ref="K135">SUMPRODUCT(TRANSPOSE($E135:$I135),D$16:D$20)/100</f>
+        <v>53.75</v>
+      </c>
+      <c r="L135" s="13" cm="1">
+        <f t="array" ref="L135">SUMPRODUCT(TRANSPOSE($E135:$I135),E$16:E$20)/100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="M135" s="13" cm="1">
+        <f t="array" ref="M135">SUMPRODUCT(TRANSPOSE($E135:$I135),F$16:F$20)/100</f>
+        <v>43.750000000000007</v>
+      </c>
+      <c r="N135" s="13" cm="1">
+        <f t="array" ref="N135">SUMPRODUCT(TRANSPOSE($E135:$I135),G$16:G$20)/100</f>
+        <v>89.166666666666657</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136" s="14">
+        <f t="shared" ref="D136:D145" si="15">SUM($C$7:$C$11)-$C$7+C136</f>
+        <v>250</v>
+      </c>
+      <c r="E136" s="14">
+        <f t="shared" ref="E136:E145" si="16">C136/D136*100</f>
+        <v>4</v>
+      </c>
+      <c r="F136" s="14">
+        <f t="shared" ref="F136:F145" si="17">$C$8/D136*100</f>
+        <v>40</v>
+      </c>
+      <c r="G136" s="14">
+        <f t="shared" ref="G136:G145" si="18">$C$9/D136*100</f>
+        <v>36</v>
+      </c>
+      <c r="H136" s="14">
+        <f t="shared" ref="H136:H145" si="19">$C$10/D136*100</f>
+        <v>4</v>
+      </c>
+      <c r="I136" s="14">
+        <f t="shared" ref="I136:I145" si="20">$C$11/D136*100</f>
+        <v>16</v>
+      </c>
+      <c r="J136" s="13" cm="1">
+        <f t="array" ref="J136">SUMPRODUCT(TRANSPOSE($E136:$I136),C$16:C$20)/100</f>
+        <v>68.8</v>
+      </c>
+      <c r="K136" s="13" cm="1">
+        <f t="array" ref="K136">SUMPRODUCT(TRANSPOSE($E136:$I136),D$16:D$20)/100</f>
+        <v>54.4</v>
+      </c>
+      <c r="L136" s="13" cm="1">
+        <f t="array" ref="L136">SUMPRODUCT(TRANSPOSE($E136:$I136),E$16:E$20)/100</f>
+        <v>65.2</v>
+      </c>
+      <c r="M136" s="13" cm="1">
+        <f t="array" ref="M136">SUMPRODUCT(TRANSPOSE($E136:$I136),F$16:F$20)/100</f>
+        <v>46</v>
+      </c>
+      <c r="N136" s="13" cm="1">
+        <f t="array" ref="N136">SUMPRODUCT(TRANSPOSE($E136:$I136),G$16:G$20)/100</f>
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137" s="14">
+        <f t="shared" si="15"/>
+        <v>260</v>
+      </c>
+      <c r="E137" s="14">
+        <f t="shared" si="16"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="F137" s="14">
+        <f t="shared" si="17"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="G137" s="14">
+        <f t="shared" si="18"/>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="H137" s="14">
+        <f t="shared" si="19"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="I137" s="14">
+        <f t="shared" si="20"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J137" s="13" cm="1">
+        <f t="array" ref="J137">SUMPRODUCT(TRANSPOSE($E137:$I137),C$16:C$20)/100</f>
+        <v>66.15384615384616</v>
+      </c>
+      <c r="K137" s="13" cm="1">
+        <f t="array" ref="K137">SUMPRODUCT(TRANSPOSE($E137:$I137),D$16:D$20)/100</f>
+        <v>55</v>
+      </c>
+      <c r="L137" s="13" cm="1">
+        <f t="array" ref="L137">SUMPRODUCT(TRANSPOSE($E137:$I137),E$16:E$20)/100</f>
+        <v>63.846153846153854</v>
+      </c>
+      <c r="M137" s="13" cm="1">
+        <f t="array" ref="M137">SUMPRODUCT(TRANSPOSE($E137:$I137),F$16:F$20)/100</f>
+        <v>48.076923076923087</v>
+      </c>
+      <c r="N137" s="13" cm="1">
+        <f t="array" ref="N137">SUMPRODUCT(TRANSPOSE($E137:$I137),G$16:G$20)/100</f>
+        <v>89.230769230769241</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138" s="14">
+        <f t="shared" si="15"/>
+        <v>270</v>
+      </c>
+      <c r="E138" s="14">
+        <f t="shared" si="16"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="F138" s="14">
+        <f t="shared" si="17"/>
+        <v>37.037037037037038</v>
+      </c>
+      <c r="G138" s="14">
+        <f t="shared" si="18"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H138" s="14">
+        <f t="shared" si="19"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="I138" s="14">
+        <f t="shared" si="20"/>
+        <v>14.814814814814813</v>
+      </c>
+      <c r="J138" s="13" cm="1">
+        <f t="array" ref="J138">SUMPRODUCT(TRANSPOSE($E138:$I138),C$16:C$20)/100</f>
+        <v>63.703703703703702</v>
+      </c>
+      <c r="K138" s="13" cm="1">
+        <f t="array" ref="K138">SUMPRODUCT(TRANSPOSE($E138:$I138),D$16:D$20)/100</f>
+        <v>55.55555555555555</v>
+      </c>
+      <c r="L138" s="13" cm="1">
+        <f t="array" ref="L138">SUMPRODUCT(TRANSPOSE($E138:$I138),E$16:E$20)/100</f>
+        <v>62.592592592592588</v>
+      </c>
+      <c r="M138" s="13" cm="1">
+        <f t="array" ref="M138">SUMPRODUCT(TRANSPOSE($E138:$I138),F$16:F$20)/100</f>
+        <v>50</v>
+      </c>
+      <c r="N138" s="13" cm="1">
+        <f t="array" ref="N138">SUMPRODUCT(TRANSPOSE($E138:$I138),G$16:G$20)/100</f>
+        <v>89.259259259259252</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C139">
+        <v>40</v>
+      </c>
+      <c r="D139" s="14">
+        <f t="shared" si="15"/>
+        <v>280</v>
+      </c>
+      <c r="E139" s="14">
+        <f t="shared" si="16"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="F139" s="14">
+        <f t="shared" si="17"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G139" s="14">
+        <f t="shared" si="18"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="H139" s="14">
+        <f t="shared" si="19"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="I139" s="14">
+        <f t="shared" si="20"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J139" s="13" cm="1">
+        <f t="array" ref="J139">SUMPRODUCT(TRANSPOSE($E139:$I139),C$16:C$20)/100</f>
+        <v>61.428571428571431</v>
+      </c>
+      <c r="K139" s="13" cm="1">
+        <f t="array" ref="K139">SUMPRODUCT(TRANSPOSE($E139:$I139),D$16:D$20)/100</f>
+        <v>56.071428571428569</v>
+      </c>
+      <c r="L139" s="13" cm="1">
+        <f t="array" ref="L139">SUMPRODUCT(TRANSPOSE($E139:$I139),E$16:E$20)/100</f>
+        <v>61.428571428571431</v>
+      </c>
+      <c r="M139" s="13" cm="1">
+        <f t="array" ref="M139">SUMPRODUCT(TRANSPOSE($E139:$I139),F$16:F$20)/100</f>
+        <v>51.785714285714292</v>
+      </c>
+      <c r="N139" s="13" cm="1">
+        <f t="array" ref="N139">SUMPRODUCT(TRANSPOSE($E139:$I139),G$16:G$20)/100</f>
+        <v>89.285714285714278</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C140">
+        <v>50</v>
+      </c>
+      <c r="D140" s="14">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="E140" s="14">
+        <f t="shared" si="16"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="F140" s="14">
+        <f t="shared" si="17"/>
+        <v>34.482758620689658</v>
+      </c>
+      <c r="G140" s="14">
+        <f t="shared" si="18"/>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="H140" s="14">
+        <f t="shared" si="19"/>
+        <v>3.4482758620689653</v>
+      </c>
+      <c r="I140" s="14">
+        <f t="shared" si="20"/>
+        <v>13.793103448275861</v>
+      </c>
+      <c r="J140" s="13" cm="1">
+        <f t="array" ref="J140">SUMPRODUCT(TRANSPOSE($E140:$I140),C$16:C$20)/100</f>
+        <v>59.310344827586214</v>
+      </c>
+      <c r="K140" s="13" cm="1">
+        <f t="array" ref="K140">SUMPRODUCT(TRANSPOSE($E140:$I140),D$16:D$20)/100</f>
+        <v>56.551724137931032</v>
+      </c>
+      <c r="L140" s="13" cm="1">
+        <f t="array" ref="L140">SUMPRODUCT(TRANSPOSE($E140:$I140),E$16:E$20)/100</f>
+        <v>60.344827586206904</v>
+      </c>
+      <c r="M140" s="13" cm="1">
+        <f t="array" ref="M140">SUMPRODUCT(TRANSPOSE($E140:$I140),F$16:F$20)/100</f>
+        <v>53.448275862068975</v>
+      </c>
+      <c r="N140" s="13" cm="1">
+        <f t="array" ref="N140">SUMPRODUCT(TRANSPOSE($E140:$I140),G$16:G$20)/100</f>
+        <v>89.310344827586221</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C141">
+        <v>60</v>
+      </c>
+      <c r="D141" s="14">
+        <f t="shared" si="15"/>
+        <v>300</v>
+      </c>
+      <c r="E141" s="14">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="F141" s="14">
+        <f t="shared" si="17"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G141" s="14">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="H141" s="14">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I141" s="14">
+        <f t="shared" si="20"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J141" s="13" cm="1">
+        <f t="array" ref="J141">SUMPRODUCT(TRANSPOSE($E141:$I141),C$16:C$20)/100</f>
+        <v>57.333333333333329</v>
+      </c>
+      <c r="K141" s="13" cm="1">
+        <f t="array" ref="K141">SUMPRODUCT(TRANSPOSE($E141:$I141),D$16:D$20)/100</f>
+        <v>57</v>
+      </c>
+      <c r="L141" s="13" cm="1">
+        <f t="array" ref="L141">SUMPRODUCT(TRANSPOSE($E141:$I141),E$16:E$20)/100</f>
+        <v>59.333333333333329</v>
+      </c>
+      <c r="M141" s="13" cm="1">
+        <f t="array" ref="M141">SUMPRODUCT(TRANSPOSE($E141:$I141),F$16:F$20)/100</f>
+        <v>54.999999999999993</v>
+      </c>
+      <c r="N141" s="13" cm="1">
+        <f t="array" ref="N141">SUMPRODUCT(TRANSPOSE($E141:$I141),G$16:G$20)/100</f>
+        <v>89.333333333333343</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C142">
+        <v>70</v>
+      </c>
+      <c r="D142" s="14">
+        <f t="shared" si="15"/>
+        <v>310</v>
+      </c>
+      <c r="E142" s="14">
+        <f t="shared" si="16"/>
+        <v>22.58064516129032</v>
+      </c>
+      <c r="F142" s="14">
+        <f t="shared" si="17"/>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="G142" s="14">
+        <f t="shared" si="18"/>
+        <v>29.032258064516132</v>
+      </c>
+      <c r="H142" s="14">
+        <f t="shared" si="19"/>
+        <v>3.225806451612903</v>
+      </c>
+      <c r="I142" s="14">
+        <f t="shared" si="20"/>
+        <v>12.903225806451612</v>
+      </c>
+      <c r="J142" s="13" cm="1">
+        <f t="array" ref="J142">SUMPRODUCT(TRANSPOSE($E142:$I142),C$16:C$20)/100</f>
+        <v>55.483870967741943</v>
+      </c>
+      <c r="K142" s="13" cm="1">
+        <f t="array" ref="K142">SUMPRODUCT(TRANSPOSE($E142:$I142),D$16:D$20)/100</f>
+        <v>57.41935483870968</v>
+      </c>
+      <c r="L142" s="13" cm="1">
+        <f t="array" ref="L142">SUMPRODUCT(TRANSPOSE($E142:$I142),E$16:E$20)/100</f>
+        <v>58.387096774193544</v>
+      </c>
+      <c r="M142" s="13" cm="1">
+        <f t="array" ref="M142">SUMPRODUCT(TRANSPOSE($E142:$I142),F$16:F$20)/100</f>
+        <v>56.451612903225808</v>
+      </c>
+      <c r="N142" s="13" cm="1">
+        <f t="array" ref="N142">SUMPRODUCT(TRANSPOSE($E142:$I142),G$16:G$20)/100</f>
+        <v>89.354838709677423</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C143">
+        <v>80</v>
+      </c>
+      <c r="D143" s="14">
+        <f t="shared" si="15"/>
+        <v>320</v>
+      </c>
+      <c r="E143" s="14">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="F143" s="14">
+        <f t="shared" si="17"/>
+        <v>31.25</v>
+      </c>
+      <c r="G143" s="14">
+        <f t="shared" si="18"/>
+        <v>28.125</v>
+      </c>
+      <c r="H143" s="14">
+        <f t="shared" si="19"/>
+        <v>3.125</v>
+      </c>
+      <c r="I143" s="14">
+        <f t="shared" si="20"/>
+        <v>12.5</v>
+      </c>
+      <c r="J143" s="13" cm="1">
+        <f t="array" ref="J143">SUMPRODUCT(TRANSPOSE($E143:$I143),C$16:C$20)/100</f>
+        <v>53.75</v>
+      </c>
+      <c r="K143" s="13" cm="1">
+        <f t="array" ref="K143">SUMPRODUCT(TRANSPOSE($E143:$I143),D$16:D$20)/100</f>
+        <v>57.8125</v>
+      </c>
+      <c r="L143" s="13" cm="1">
+        <f t="array" ref="L143">SUMPRODUCT(TRANSPOSE($E143:$I143),E$16:E$20)/100</f>
+        <v>57.5</v>
+      </c>
+      <c r="M143" s="13" cm="1">
+        <f t="array" ref="M143">SUMPRODUCT(TRANSPOSE($E143:$I143),F$16:F$20)/100</f>
+        <v>57.8125</v>
+      </c>
+      <c r="N143" s="13" cm="1">
+        <f t="array" ref="N143">SUMPRODUCT(TRANSPOSE($E143:$I143),G$16:G$20)/100</f>
+        <v>89.375</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C144">
+        <v>90</v>
+      </c>
+      <c r="D144" s="14">
+        <f t="shared" si="15"/>
+        <v>330</v>
+      </c>
+      <c r="E144" s="14">
+        <f t="shared" si="16"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F144" s="14">
+        <f t="shared" si="17"/>
+        <v>30.303030303030305</v>
+      </c>
+      <c r="G144" s="14">
+        <f t="shared" si="18"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="H144" s="14">
+        <f t="shared" si="19"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="I144" s="14">
+        <f t="shared" si="20"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="J144" s="13" cm="1">
+        <f t="array" ref="J144">SUMPRODUCT(TRANSPOSE($E144:$I144),C$16:C$20)/100</f>
+        <v>52.121212121212118</v>
+      </c>
+      <c r="K144" s="13" cm="1">
+        <f t="array" ref="K144">SUMPRODUCT(TRANSPOSE($E144:$I144),D$16:D$20)/100</f>
+        <v>58.18181818181818</v>
+      </c>
+      <c r="L144" s="13" cm="1">
+        <f t="array" ref="L144">SUMPRODUCT(TRANSPOSE($E144:$I144),E$16:E$20)/100</f>
+        <v>56.666666666666657</v>
+      </c>
+      <c r="M144" s="13" cm="1">
+        <f t="array" ref="M144">SUMPRODUCT(TRANSPOSE($E144:$I144),F$16:F$20)/100</f>
+        <v>59.090909090909093</v>
+      </c>
+      <c r="N144" s="13" cm="1">
+        <f t="array" ref="N144">SUMPRODUCT(TRANSPOSE($E144:$I144),G$16:G$20)/100</f>
+        <v>89.393939393939405</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C145">
+        <v>100</v>
+      </c>
+      <c r="D145" s="14">
+        <f t="shared" si="15"/>
+        <v>340</v>
+      </c>
+      <c r="E145" s="14">
+        <f t="shared" si="16"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="F145" s="14">
+        <f t="shared" si="17"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="G145" s="14">
+        <f t="shared" si="18"/>
+        <v>26.47058823529412</v>
+      </c>
+      <c r="H145" s="14">
+        <f t="shared" si="19"/>
+        <v>2.9411764705882351</v>
+      </c>
+      <c r="I145" s="14">
+        <f t="shared" si="20"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="J145" s="13" cm="1">
+        <f t="array" ref="J145">SUMPRODUCT(TRANSPOSE($E145:$I145),C$16:C$20)/100</f>
+        <v>50.588235294117652</v>
+      </c>
+      <c r="K145" s="13" cm="1">
+        <f t="array" ref="K145">SUMPRODUCT(TRANSPOSE($E145:$I145),D$16:D$20)/100</f>
+        <v>58.529411764705884</v>
+      </c>
+      <c r="L145" s="13" cm="1">
+        <f t="array" ref="L145">SUMPRODUCT(TRANSPOSE($E145:$I145),E$16:E$20)/100</f>
+        <v>55.882352941176471</v>
+      </c>
+      <c r="M145" s="13" cm="1">
+        <f t="array" ref="M145">SUMPRODUCT(TRANSPOSE($E145:$I145),F$16:F$20)/100</f>
+        <v>60.294117647058826</v>
+      </c>
+      <c r="N145" s="13" cm="1">
+        <f t="array" ref="N145">SUMPRODUCT(TRANSPOSE($E145:$I145),G$16:G$20)/100</f>
+        <v>89.411764705882362</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="E133:I133"/>
+    <mergeCell ref="J133:N133"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:N59"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/assessment2/assessment2_calcs.xlsx
+++ b/assessment2/assessment2_calcs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B162B9B-49F8-4F98-BC52-ED87C5199CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6AE010-96DA-40D0-AC39-B2033CA61BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="2" r:id="rId2"/>
-    <sheet name="Task3" sheetId="3" r:id="rId3"/>
+    <sheet name="Task3 - Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Task3 - Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="TreeData" localSheetId="0">Task1!$ALM$1003:$ALT$1017</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -148,9 +149,6 @@
     <t>Size of Site</t>
   </si>
   <si>
-    <t>Car-parking Facilities</t>
-  </si>
-  <si>
     <t>Visibility</t>
   </si>
   <si>
@@ -217,9 +215,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Car-Parking</t>
-  </si>
-  <si>
     <t>Raw Weight</t>
   </si>
   <si>
@@ -259,22 +254,161 @@
     <t>1: Size of Site</t>
   </si>
   <si>
-    <t>2: Car-Parking</t>
+    <t>3: Closeness</t>
   </si>
   <si>
-    <t>3: Closeness</t>
+    <t>Car Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>2: Car Parking</t>
+  </si>
+  <si>
+    <t>Car Parking Facilities</t>
+  </si>
+  <si>
+    <t>TASK 3 - Data on Shortlisted Locations</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Node ID</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>cnr Lygon St, Princes St</t>
+  </si>
+  <si>
+    <t>Carlton Nth</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>cnr Springvale Rd, Police Rd, Princes Hwy</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>cnr Wellington Rd, Berwick Rd</t>
+  </si>
+  <si>
+    <t>Belgrave Sth</t>
+  </si>
+  <si>
+    <t>cnr Boundary Rd, Derrimut Rd</t>
+  </si>
+  <si>
+    <t>Derrimut</t>
+  </si>
+  <si>
+    <t>cnr Canning St, Richardson St</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>cnr Nepean Hwy, Warrigal Rd</t>
+  </si>
+  <si>
+    <t>Mentone</t>
+  </si>
+  <si>
+    <t>Accidents</t>
+  </si>
+  <si>
+    <t>Proximity to Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fatal</t>
+  </si>
+  <si>
+    <t>Serious</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Aged Care</t>
+  </si>
+  <si>
+    <t>Peak-Hour Congestion</t>
+  </si>
+  <si>
+    <t>Local Population</t>
+  </si>
+  <si>
+    <t>Congestion Factor</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>borders Yarra and Melbourne</t>
+  </si>
+  <si>
+    <t>borders Monash and Greater Dandenong</t>
+  </si>
+  <si>
+    <t>Yarra Ranges</t>
+  </si>
+  <si>
+    <t>borders Wyndham and Melton</t>
+  </si>
+  <si>
+    <t>Yarra</t>
+  </si>
+  <si>
+    <t>Kingston</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +431,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -394,12 +536,329 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -428,16 +887,104 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -571,7 +1118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBB962CD-2968-48FC-9CBF-ABEF3EEEC9FC}" type="CELLRANGE">
+                    <a:fld id="{FC93CA7E-0DC3-4338-9F38-13E217806D04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -610,7 +1157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79B85AC4-CF6F-4385-B26E-1A371D71A938}" type="CELLRANGE">
+                    <a:fld id="{829772F3-B7BE-483A-B9E2-BBA650A4AC31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -649,7 +1196,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D9C0C95-2343-4955-8A38-C1C896CBE874}" type="CELLRANGE">
+                    <a:fld id="{C44E87FA-56AF-4F98-B939-17647B783E1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -688,7 +1235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C7E001F-CF7A-4EE2-AFC1-CEEA1188A60A}" type="CELLRANGE">
+                    <a:fld id="{F8FEEE36-DC27-47B7-BD95-7080C61A77A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -727,7 +1274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C0BAB4B-32E8-4EF5-9BA8-D9934579C982}" type="CELLRANGE">
+                    <a:fld id="{6D627C65-670F-43BC-BFD8-A33B1844BBDF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2340,7 +2887,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> Value vs Weight of Car-Parking Attribute</a:t>
+              <a:t> Value vs Weight of Car Parking Attribute</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -3088,7 +3635,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> Car-Parking Attribute</a:t>
+                  <a:t> Car Parking Attribute</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -9915,7 +10462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9928,7 +10475,9 @@
   </sheetPr>
   <dimension ref="A1:ALT1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9948,8 +10497,8 @@
     <col min="2000" max="2000" width="2.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10675,8 +11224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004556E-934C-4078-9F8A-DC164B820FA9}">
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10690,8 +11239,8 @@
     <col min="2000" max="2000" width="2.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10700,21 +11249,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -10743,7 +11292,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -10755,7 +11304,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -10767,7 +11316,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -10779,24 +11328,24 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -10842,7 +11391,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>80</v>
@@ -10862,7 +11411,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -10882,7 +11431,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -10902,7 +11451,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="13">
         <f>SUMPRODUCT(C16:C20,$D$7:$D$11)/100</f>
@@ -10927,26 +11476,26 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="E25" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="16">
         <v>105000</v>
@@ -10964,7 +11513,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="16">
         <v>60000</v>
@@ -10984,7 +11533,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="16">
         <v>35000</v>
@@ -11000,11 +11549,11 @@
         <v>125000</v>
       </c>
       <c r="J28" s="12"/>
-      <c r="K28" s="18"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="16">
         <v>75000</v>
@@ -11019,12 +11568,12 @@
         <f t="shared" si="2"/>
         <v>130000</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="16">
         <v>90000</v>
@@ -11042,89 +11591,83 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J33" s="12"/>
-      <c r="K33" s="18"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J34" s="19"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="12"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C60" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="J60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K60" s="12" t="s">
+      <c r="M60" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L60" s="12" t="s">
+      <c r="N60" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N60" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -11668,59 +12211,59 @@
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B96" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C97" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="J97" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K97" s="12" t="s">
+      <c r="M97" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L97" s="12" t="s">
+      <c r="N97" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="M97" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N97" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.35">
@@ -12489,7 +13032,9 @@
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
+      <c r="I126" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
@@ -12528,7 +13073,9 @@
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
+      <c r="I129" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="J129" s="13"/>
       <c r="K129" s="13"/>
       <c r="L129" s="13"/>
@@ -12576,59 +13123,59 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B133" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="20"/>
-      <c r="N133" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C134" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D134" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="J134" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K134" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L134" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K134" s="12" t="s">
+      <c r="M134" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L134" s="12" t="s">
+      <c r="N134" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="M134" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N134" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.35">
@@ -13186,6 +13733,649 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDB724-EB94-4F12-9560-B4EA39B854DF}">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" customWidth="1"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="28">
+        <v>36335</v>
+      </c>
+      <c r="D6" s="29">
+        <v>-37.792262218399998</v>
+      </c>
+      <c r="E6" s="30">
+        <v>144.96841020839997</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="36">
+        <v>10592</v>
+      </c>
+      <c r="D7" s="37">
+        <v>-37.933161954347831</v>
+      </c>
+      <c r="E7" s="38">
+        <v>145.15677819478265</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="36">
+        <v>42680</v>
+      </c>
+      <c r="D8" s="37">
+        <v>-37.961190742608693</v>
+      </c>
+      <c r="E8" s="38">
+        <v>145.36115421347824</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="36">
+        <v>45524</v>
+      </c>
+      <c r="D9" s="37">
+        <v>-37.805022546363631</v>
+      </c>
+      <c r="E9" s="38">
+        <v>144.69593451409091</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="36">
+        <v>29361</v>
+      </c>
+      <c r="D10" s="37">
+        <v>-37.784910360476204</v>
+      </c>
+      <c r="E10" s="38">
+        <v>144.97506995476192</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="44">
+        <v>35605</v>
+      </c>
+      <c r="D11" s="45">
+        <v>-37.98216354238096</v>
+      </c>
+      <c r="E11" s="46">
+        <v>145.07139516952378</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="I15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="36">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42">
+        <v>15</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="53">
+        <v>1.9</v>
+      </c>
+      <c r="K16" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="36">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>14</v>
+      </c>
+      <c r="F17" s="42">
+        <v>9</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="54">
+        <v>0.24</v>
+      </c>
+      <c r="J17" s="53">
+        <v>3.9</v>
+      </c>
+      <c r="K17" s="42">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="36">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="53">
+        <v>9</v>
+      </c>
+      <c r="F18" s="42">
+        <v>13</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="54">
+        <v>2.8</v>
+      </c>
+      <c r="J18" s="53">
+        <v>12.9</v>
+      </c>
+      <c r="K18" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="36">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>8</v>
+      </c>
+      <c r="F19" s="42">
+        <v>14</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="54">
+        <v>3.2</v>
+      </c>
+      <c r="J19" s="53">
+        <v>6.6</v>
+      </c>
+      <c r="K19" s="42">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="36">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53">
+        <v>7</v>
+      </c>
+      <c r="F20" s="42">
+        <v>14</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="54">
+        <v>1</v>
+      </c>
+      <c r="J20" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="K20" s="42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="44">
+        <v>21</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="56">
+        <v>9</v>
+      </c>
+      <c r="F21" s="50">
+        <v>12</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="57">
+        <v>0.16</v>
+      </c>
+      <c r="J21" s="56">
+        <v>2.8</v>
+      </c>
+      <c r="K21" s="50">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="58">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="H26" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34">
+        <f>103125+183756</f>
+        <v>286881</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="54">
+        <v>2</v>
+      </c>
+      <c r="D27" s="53">
+        <v>9</v>
+      </c>
+      <c r="E27" s="64">
+        <f>D27/C27</f>
+        <v>4.5</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42">
+        <f>204936+168362</f>
+        <v>373298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="54">
+        <v>2</v>
+      </c>
+      <c r="D28" s="53">
+        <v>3</v>
+      </c>
+      <c r="E28" s="64">
+        <f t="shared" ref="E28:E32" si="0">D28/C28</f>
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42">
+        <v>159955</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="54">
+        <v>1</v>
+      </c>
+      <c r="D29" s="53">
+        <v>1</v>
+      </c>
+      <c r="E29" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42">
+        <f>283294+172500</f>
+        <v>455794</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="54">
+        <v>2</v>
+      </c>
+      <c r="D30" s="53">
+        <v>3</v>
+      </c>
+      <c r="E30" s="64">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="42">
+        <v>103125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="54">
+        <v>3</v>
+      </c>
+      <c r="D31" s="53">
+        <v>4</v>
+      </c>
+      <c r="E31" s="64">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50">
+        <v>167293</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="57">
+        <v>2</v>
+      </c>
+      <c r="D32" s="56">
+        <v>3</v>
+      </c>
+      <c r="E32" s="65">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779BE29-FEF8-4926-9FA0-B0F9F251FEB8}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/assessment2/assessment2_calcs.xlsx
+++ b/assessment2/assessment2_calcs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6AE010-96DA-40D0-AC39-B2033CA61BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4ACDF-CB3A-41AC-B60A-5A258D537BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="2" r:id="rId2"/>
-    <sheet name="Task3 - Data" sheetId="4" r:id="rId3"/>
-    <sheet name="Task3 - Analysis" sheetId="3" r:id="rId4"/>
+    <sheet name="Task3 - Raw Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Task3 - Value Functions" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="TreeData" localSheetId="0">Task1!$ALM$1003:$ALT$1017</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -377,9 +378,6 @@
     <t>LGA</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>borders Yarra and Melbourne</t>
   </si>
   <si>
@@ -396,6 +394,60 @@
   </si>
   <si>
     <t>Kingston</t>
+  </si>
+  <si>
+    <t>Serious Accidents</t>
+  </si>
+  <si>
+    <t>Other Accidents</t>
+  </si>
+  <si>
+    <t>Congestion</t>
+  </si>
+  <si>
+    <t>Cong.</t>
+  </si>
+  <si>
+    <t>Prox.</t>
+  </si>
+  <si>
+    <t>Pop.</t>
+  </si>
+  <si>
+    <t>Proximity Weights</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Proximity To Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>All Attributes</t>
+  </si>
+  <si>
+    <t>Weighted Sum</t>
+  </si>
+  <si>
+    <t>Population (1000s)</t>
+  </si>
+  <si>
+    <t>Task 3 - Analysis</t>
+  </si>
+  <si>
+    <t>TASK 3 - Value Functions and Weights</t>
+  </si>
+  <si>
+    <t>Value Functions</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>Norm. Weight</t>
+  </si>
+  <si>
+    <t>Sum of Weights</t>
   </si>
 </sst>
 </file>
@@ -448,7 +500,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -853,12 +905,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -985,6 +1070,84 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1118,7 +1281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC93CA7E-0DC3-4338-9F38-13E217806D04}" type="CELLRANGE">
+                    <a:fld id="{721CCC95-DFBB-4E43-BC83-9F8389CF1E59}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1157,7 +1320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{829772F3-B7BE-483A-B9E2-BBA650A4AC31}" type="CELLRANGE">
+                    <a:fld id="{DB142437-DEFB-4A93-85D8-EB06E9A18710}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1196,7 +1359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C44E87FA-56AF-4F98-B939-17647B783E1A}" type="CELLRANGE">
+                    <a:fld id="{5D390DF5-3582-4183-B6AC-6DF7F0F0D2FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1235,7 +1398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8FEEE36-DC27-47B7-BD95-7080C61A77A5}" type="CELLRANGE">
+                    <a:fld id="{1AAC3B8C-4DD0-426E-9663-5793CAEDDB83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1274,7 +1437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D627C65-670F-43BC-BFD8-A33B1844BBDF}" type="CELLRANGE">
+                    <a:fld id="{2A94C8F1-7143-4D74-958A-6825973D6D90}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4977,6 +5140,1938 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Value vs Serious</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Accidents</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26719999999999999"/>
+          <c:y val="3.6463081130355512E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ?/?</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E64-4C95-B393-C6F1576191AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182435216"/>
+        <c:axId val="182433136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182435216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Serious Accidents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38958992125984254"/>
+              <c:y val="0.90746847163703459"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182433136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182433136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182435216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Value vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Other</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Accidents</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2928"/>
+          <c:y val="4.0109389243391066E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ?/?</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-401F-4316-9F2E-12958AF1FA7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182435216"/>
+        <c:axId val="182433136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182435216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Other Accidents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38958992125984254"/>
+              <c:y val="0.90746847163703459"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182433136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182433136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182435216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Value vs Congestion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32479999999999998"/>
+          <c:y val="4.0109389243391066E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ?/?</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE81-4E0B-9E55-1416BDAA2DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182435216"/>
+        <c:axId val="182433136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182435216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Congestion Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38958992125984254"/>
+              <c:y val="0.90746847163703459"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182433136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182433136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182435216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Value vs Proximity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33760000000000001"/>
+          <c:y val="3.6463081130355512E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$F$18:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ?/?</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0730-421A-8DF9-C39724089A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182435216"/>
+        <c:axId val="182433136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182435216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Proximity to Vulnerable</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Populations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28398992125984251"/>
+              <c:y val="0.90746847163703459"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182433136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182433136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182435216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Value vs Local</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Population</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27360000000000001"/>
+          <c:y val="3.6463081130355512E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ?/?</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A02-4659-9C4B-C0E79345EBA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182435216"/>
+        <c:axId val="182433136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182435216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="456"/>
+          <c:min val="103"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Local Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38958992125984254"/>
+              <c:y val="0.90746847163703459"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182433136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182433136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182435216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5098,6 +7193,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6686,6 +8821,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10173,6 +12824,201 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5F959F-986C-4844-9710-AED8705CFF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3522E4E-8E12-4889-8689-24C09681E476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4180037D-FD95-4C53-83C0-50674BB92A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E502825A-23DC-459B-BBA9-7BCA710FC247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237CC69E-0722-44DA-84D3-8895FDA98E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10475,7 +13321,7 @@
   </sheetPr>
   <dimension ref="A1:ALT1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -11224,7 +14070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004556E-934C-4078-9F8A-DC164B820FA9}">
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -13736,8 +16582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDB724-EB94-4F12-9560-B4EA39B854DF}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13753,7 +16599,7 @@
     <col min="10" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="10.25" customWidth="1"/>
     <col min="16" max="16" width="9.25" customWidth="1"/>
@@ -14159,8 +17005,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="58">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -14170,33 +17016,25 @@
       <c r="E25" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="23" t="s">
-        <v>103</v>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="60" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="61"/>
       <c r="D26" s="62"/>
       <c r="E26" s="63"/>
-      <c r="H26" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34">
-        <f>103125+183756</f>
-        <v>286881</v>
-      </c>
+      <c r="I26" s="91"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="63"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
@@ -14212,18 +17050,18 @@
         <f>D27/C27</f>
         <v>4.5</v>
       </c>
-      <c r="H27" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42">
-        <f>204936+168362</f>
-        <v>373298</v>
+      <c r="H27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="86">
+        <f>(103125+183756)/1000</f>
+        <v>286.88099999999997</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
@@ -14241,16 +17079,17 @@
         <v>1.5</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42">
-        <v>159955</v>
+        <v>78</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="87">
+        <f>(204936+168362)/1000</f>
+        <v>373.298</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
@@ -14268,17 +17107,17 @@
         <v>1</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42">
-        <f>283294+172500</f>
-        <v>455794</v>
+        <v>81</v>
+      </c>
+      <c r="I29" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="87">
+        <f>159955/1000</f>
+        <v>159.95500000000001</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
@@ -14296,19 +17135,20 @@
         <v>1.5</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42">
-        <v>103125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="I30" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="87">
+        <f>(283294+172500)/1000</f>
+        <v>455.79399999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
         <v>11</v>
       </c>
@@ -14322,17 +17162,18 @@
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="H31" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50">
-        <v>167293</v>
+      <c r="H31" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="87">
+        <f>103125/1000</f>
+        <v>103.125</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14349,20 +17190,28 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
+      <c r="H32" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="88">
+        <f>167293/1000</f>
+        <v>167.29300000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
+  <mergeCells count="12">
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="I25:L26"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
@@ -14377,15 +17226,443 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779BE29-FEF8-4926-9FA0-B0F9F251FEB8}">
+  <dimension ref="A1:I89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" customWidth="1"/>
+    <col min="10" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="1995" max="1995" width="2.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="53">
+        <v>1.9</v>
+      </c>
+      <c r="E8" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="74" cm="1">
+        <f t="array" ref="F8">SUMPRODUCT(C8:E8, TRANSPOSE($I$8:$I$10))</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0.24</v>
+      </c>
+      <c r="D9" s="53">
+        <v>3.9</v>
+      </c>
+      <c r="E9" s="72">
+        <v>0.21</v>
+      </c>
+      <c r="F9" s="74" cm="1">
+        <f t="array" ref="F9">SUMPRODUCT(C9:E9, TRANSPOSE($I$8:$I$10))</f>
+        <v>1.1475</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="54">
+        <v>2.8</v>
+      </c>
+      <c r="D10" s="53">
+        <v>12.9</v>
+      </c>
+      <c r="E10" s="72">
+        <v>10</v>
+      </c>
+      <c r="F10" s="74" cm="1">
+        <f t="array" ref="F10">SUMPRODUCT(C10:E10, TRANSPOSE($I$8:$I$10))</f>
+        <v>7.125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="54">
+        <v>3.2</v>
+      </c>
+      <c r="D11" s="53">
+        <v>6.6</v>
+      </c>
+      <c r="E11" s="72">
+        <v>3.9</v>
+      </c>
+      <c r="F11" s="74" cm="1">
+        <f t="array" ref="F11">SUMPRODUCT(C11:E11, TRANSPOSE($I$8:$I$10))</f>
+        <v>4.2249999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="54">
+        <v>1</v>
+      </c>
+      <c r="D12" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="72">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="74" cm="1">
+        <f t="array" ref="F12">SUMPRODUCT(C12:E12, TRANSPOSE($I$8:$I$10))</f>
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="57">
+        <v>0.16</v>
+      </c>
+      <c r="D13" s="56">
+        <v>2.8</v>
+      </c>
+      <c r="E13" s="73">
+        <v>0.45</v>
+      </c>
+      <c r="F13" s="75" cm="1">
+        <f t="array" ref="F13">SUMPRODUCT(C13:E13, TRANSPOSE($I$8:$I$10))</f>
+        <v>0.89249999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>7.1</v>
+      </c>
+      <c r="G18">
+        <v>103</v>
+      </c>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="66">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f>MEDIAN(C18,C20)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D19">
+        <f>MEDIAN(D18,D20)</f>
+        <v>10.5</v>
+      </c>
+      <c r="E19">
+        <f>MEDIAN(E18,E20)</f>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f>MEDIAN(F18,F20)</f>
+        <v>5.05</v>
+      </c>
+      <c r="G19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="66">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="66">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <f>MEDIAN(C20,C22)</f>
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <f>MEDIAN(D20,D22)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E21">
+        <f>MEDIAN(E20,E22)</f>
+        <v>3.75</v>
+      </c>
+      <c r="F21">
+        <f>MEDIAN(F20,F22)</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="G21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="10">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>4.5</v>
+      </c>
+      <c r="F22">
+        <v>0.9</v>
+      </c>
+      <c r="G22">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F83" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="102">
+        <v>100</v>
+      </c>
+      <c r="G84" s="86">
+        <f>F84/$F$89*100</f>
+        <v>27.027027027027028</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C85" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="54">
+        <v>80</v>
+      </c>
+      <c r="G85" s="87">
+        <f t="shared" ref="G85:G88" si="0">F85/$F$89*100</f>
+        <v>21.621621621621621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="54">
+        <v>80</v>
+      </c>
+      <c r="G86" s="87">
+        <f t="shared" si="0"/>
+        <v>21.621621621621621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="54">
+        <v>60</v>
+      </c>
+      <c r="G87" s="87">
+        <f t="shared" si="0"/>
+        <v>16.216216216216218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C88" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="57">
+        <v>50</v>
+      </c>
+      <c r="G88" s="88">
+        <f t="shared" si="0"/>
+        <v>13.513513513513514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C89" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="103">
+        <f>SUM(F84:F88)</f>
+        <v>370</v>
+      </c>
+      <c r="G89" s="101">
+        <f>SUM(G84:G88)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB378B99-37B5-4CCF-952B-6B38A828707A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2000" max="2000" width="2.4140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assessment2/assessment2_calcs.xlsx
+++ b/assessment2/assessment2_calcs.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4ACDF-CB3A-41AC-B60A-5A258D537BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EAC077-0D57-4ABC-A0A8-D41B26F6CA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="730" activeTab="4" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="2" r:id="rId2"/>
     <sheet name="Task3 - Raw Data" sheetId="4" r:id="rId3"/>
-    <sheet name="Task3 - Value Functions" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Task3 - Value Funcs and Weights" sheetId="3" r:id="rId4"/>
+    <sheet name="Task3 - Analysis" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="TreeData" localSheetId="0">Task1!$ALM$1003:$ALT$1017</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -378,6 +378,9 @@
     <t>LGA</t>
   </si>
   <si>
+    <t>Population</t>
+  </si>
+  <si>
     <t>borders Yarra and Melbourne</t>
   </si>
   <si>
@@ -405,6 +408,9 @@
     <t>Congestion</t>
   </si>
   <si>
+    <t>Proximity</t>
+  </si>
+  <si>
     <t>Cong.</t>
   </si>
   <si>
@@ -424,6 +430,9 @@
   </si>
   <si>
     <t>All Attributes</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
   <si>
     <t>Weighted Sum</t>
@@ -448,6 +457,42 @@
   </si>
   <si>
     <t>Sum of Weights</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Bottom-Level Attributes</t>
+  </si>
+  <si>
+    <t>Top-Level Attributes</t>
+  </si>
+  <si>
+    <t>Danger</t>
+  </si>
+  <si>
+    <t>Benefaction</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Location with maximum exigency:</t>
+  </si>
+  <si>
+    <t>Evaluate performance of alternatives</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1326,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{721CCC95-DFBB-4E43-BC83-9F8389CF1E59}" type="CELLRANGE">
+                    <a:fld id="{CC58A28B-D2A5-40BD-A882-2514FAA6A7EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1320,7 +1365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB142437-DEFB-4A93-85D8-EB06E9A18710}" type="CELLRANGE">
+                    <a:fld id="{3D78EAAD-E776-4141-93AF-828373D50EB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1359,7 +1404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D390DF5-3582-4183-B6AC-6DF7F0F0D2FB}" type="CELLRANGE">
+                    <a:fld id="{A151F7FF-39EA-4454-A10C-380DE40F082D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1398,7 +1443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AAC3B8C-4DD0-426E-9663-5793CAEDDB83}" type="CELLRANGE">
+                    <a:fld id="{A707F285-9D91-4FBE-ADE7-D1A15F1BB751}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1437,7 +1482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A94C8F1-7143-4D74-958A-6825973D6D90}" type="CELLRANGE">
+                    <a:fld id="{A5BB738B-D4DC-4827-B6E7-E98118643C25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5251,7 +5296,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$C$18:$C$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$C$18:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5275,7 +5320,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>#\ ?/?</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5703,7 +5748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$D$18:$D$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$D$18:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5727,7 +5772,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>#\ ?/?</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6060,7 +6105,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$E$18:$E$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$E$18:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6084,7 +6129,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>#\ ?/?</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6417,7 +6462,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$F$18:$F$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$F$18:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6441,7 +6486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>#\ ?/?</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6463,7 +6508,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0730-421A-8DF9-C39724089A50}"/>
@@ -6784,7 +6829,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$G$18:$G$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$G$18:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6808,7 +6853,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task3 - Value Functions'!$B$18:$B$22</c:f>
+              <c:f>'Task3 - Value Funcs and Weights'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>#\ ?/?</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6830,7 +6875,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A02-4659-9C4B-C0E79345EBA2}"/>
@@ -12835,7 +12880,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
@@ -12911,7 +12956,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
@@ -12987,7 +13032,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
@@ -14070,8 +14115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004556E-934C-4078-9F8A-DC164B820FA9}">
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -16582,8 +16627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDB724-EB94-4F12-9560-B4EA39B854DF}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -17023,7 +17068,7 @@
       <c r="K25" s="90"/>
       <c r="L25" s="92"/>
       <c r="M25" s="60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -17054,7 +17099,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J27" s="79"/>
       <c r="K27" s="79"/>
@@ -17082,7 +17127,7 @@
         <v>78</v>
       </c>
       <c r="I28" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -17110,7 +17155,7 @@
         <v>81</v>
       </c>
       <c r="I29" s="81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
@@ -17138,7 +17183,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="94"/>
@@ -17166,7 +17211,7 @@
         <v>11</v>
       </c>
       <c r="I31" s="81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="94"/>
@@ -17194,7 +17239,7 @@
         <v>87</v>
       </c>
       <c r="I32" s="83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
@@ -17226,16 +17271,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779BE29-FEF8-4926-9FA0-B0F9F251FEB8}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.4140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -17247,18 +17292,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -17273,10 +17318,10 @@
         <v>98</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -17407,12 +17452,12 @@
     </row>
     <row r="15" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="76" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>94</v>
@@ -17421,13 +17466,13 @@
         <v>95</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -17542,102 +17587,146 @@
     <row r="23" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
     </row>
-    <row r="82" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F83" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F85" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G83" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="96"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="102">
+      <c r="G85" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="102">
         <v>100</v>
       </c>
-      <c r="G84" s="86">
-        <f>F84/$F$89*100</f>
+      <c r="G86" s="86">
+        <f>F86/$F$91*100</f>
         <v>27.027027027027028</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="54">
-        <v>80</v>
-      </c>
-      <c r="G85" s="87">
-        <f t="shared" ref="G85:G88" si="0">F85/$F$89*100</f>
-        <v>21.621621621621621</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C86" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="54">
-        <v>80</v>
-      </c>
-      <c r="G86" s="87">
-        <f t="shared" si="0"/>
-        <v>21.621621621621621</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C87" s="97" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D87" s="70"/>
       <c r="E87" s="70"/>
       <c r="F87" s="54">
+        <v>80</v>
+      </c>
+      <c r="G87" s="87">
+        <f>F87/$F$91*100</f>
+        <v>21.621621621621621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="54">
+        <v>80</v>
+      </c>
+      <c r="G88" s="87">
+        <f>F88/$F$91*100</f>
+        <v>21.621621621621621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C89" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="54">
         <v>60</v>
       </c>
-      <c r="G87" s="87">
-        <f t="shared" si="0"/>
+      <c r="G89" s="87">
+        <f>F89/$F$91*100</f>
         <v>16.216216216216218</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C88" s="98" t="s">
+    <row r="90" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C90" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="57">
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="57">
         <v>50</v>
       </c>
-      <c r="G88" s="88">
-        <f t="shared" si="0"/>
+      <c r="G90" s="88">
+        <f>F90/$F$91*100</f>
         <v>13.513513513513514</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C89" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="103">
-        <f>SUM(F84:F88)</f>
+    <row r="91" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C91" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="100"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="103">
+        <f>SUM(F86:F90)</f>
         <v>370</v>
       </c>
-      <c r="G89" s="101">
-        <f>SUM(G84:G88)</f>
+      <c r="G91" s="101">
+        <f>SUM(G86:G90)</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="95" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C96" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="86">
+        <f>G86+G87</f>
+        <v>48.648648648648646</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="87">
+        <f>G88</f>
+        <v>21.621621621621621</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C98" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="88">
+        <f>G89+G90</f>
+        <v>29.729729729729733</v>
       </c>
     </row>
   </sheetData>
@@ -17649,20 +17738,226 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB378B99-37B5-4CCF-952B-6B38A828707A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>72</v>
+      </c>
+      <c r="H6" s="13" cm="1">
+        <f t="array" ref="H6">SUMPRODUCT(TRANSPOSE(C6:G6),'Task3 - Value Funcs and Weights'!$G$86:$G$90)/100</f>
+        <v>82.702702702702695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>87</v>
+      </c>
+      <c r="H7" s="13" cm="1">
+        <f t="array" ref="H7">SUMPRODUCT(TRANSPOSE(C7:G7),'Task3 - Value Funcs and Weights'!$G$86:$G$90)/100</f>
+        <v>59.594594594594604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8" s="13" cm="1">
+        <f t="array" ref="H8">SUMPRODUCT(TRANSPOSE(C8:G8),'Task3 - Value Funcs and Weights'!$G$86:$G$90)/100</f>
+        <v>27.324324324324326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="13" cm="1">
+        <f t="array" ref="H9">SUMPRODUCT(TRANSPOSE(C9:G9),'Task3 - Value Funcs and Weights'!$G$86:$G$90)/100</f>
+        <v>47.13513513513513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13" cm="1">
+        <f t="array" ref="H10">SUMPRODUCT(TRANSPOSE(C10:G10),'Task3 - Value Funcs and Weights'!$G$86:$G$90)/100</f>
+        <v>38.594594594594604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13" cm="1">
+        <f t="array" ref="H11">SUMPRODUCT(TRANSPOSE(C11:G11),'Task3 - Value Funcs and Weights'!$G$86:$G$90)/100</f>
+        <v>45.810810810810807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(_xlfn.XLOOKUP(MAX(H6:H11),H6:H11,B6:B11),'Task3 - Raw Data'!B6:J11,5)</f>
+        <v>cnr Lygon St, Princes St</v>
+      </c>
+      <c r="G15" t="str">
+        <f>_xlfn.CONCAT("in ",VLOOKUP(E15,'Task3 - Raw Data'!F6:J11,5))</f>
+        <v>in Carlton Nth</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>